--- a/helpful/VisioTemplates_Stats.xlsx
+++ b/helpful/VisioTemplates_Stats.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B9D3E48-DD04-446C-AD6D-42A32E78B905}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16655C92-F4AA-4135-86BE-0AB197661FF3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10546" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1831,7 +1831,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q157"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -6926,162 +6928,162 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="A4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="A5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A2" r:id="rId1" display="..\..\..\..\..\..\Program Files (x86)\Microsoft Office\root\Office16\Visio Content\1049\ACTDIR_M.VSTX" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A3" r:id="rId2" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/ACTUAL_FINISHDATES_GANTTCHART_M.VSTX" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A4" r:id="rId3" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/ASSOCIATIONS_UML_CLASS_M.VSTX" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A5" r:id="rId4" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/AUDIT_M.VSTX" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
     <hyperlink ref="A6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="A7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="A8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="A9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="A10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="A11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="A12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="A13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="A14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="A15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="A16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="A17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="A18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="A19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="A20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="A21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="A22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="A23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="A24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="A25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="A26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="A27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="A28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="A29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="A30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="A31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="A32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="A33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="A34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="A35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="A36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="A37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="A38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="A39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="A40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="A41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="A42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="A43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="A44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="A45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="A46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="A47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="A48" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="A49" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="A50" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="A51" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="A52" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="A53" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="A54" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="A55" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="A56" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="A57" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="A58" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="A59" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="A60" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="A61" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="A62" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="A63" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="A64" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="A65" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="A66" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="A67" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="A68" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="A69" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="A70" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="A71" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="A72" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="A73" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="A74" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="A75" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="A76" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="A77" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="A78" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="A79" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="A80" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="A81" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="A82" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="A83" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="A84" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="A85" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="A86" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="A87" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="A88" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="A89" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="A90" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="A91" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="A92" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="A93" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="A94" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="A95" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="A96" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="A97" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="A98" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="A99" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="A100" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="A101" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="A102" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="A103" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="A104" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="A105" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="A106" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="A107" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="A108" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="A109" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="A110" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="A111" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="A112" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="A113" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="A114" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="A115" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="A116" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="A117" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="A118" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="A119" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="A120" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="A121" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="A122" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="A123" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="A124" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="A125" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="A126" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="A127" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="A128" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="A129" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="A130" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="A131" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="A132" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="A133" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="A134" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="A135" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="A136" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="A137" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="A138" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="A139" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="A140" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="A141" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="A142" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="A143" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="A144" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="A145" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="A146" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="A147" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="A148" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="A149" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="A150" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="A151" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="A152" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="A153" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="A154" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="A155" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="A156" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="A157" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="A7" r:id="rId6" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/AUDIT_SUBPROCESS_M.VSTX" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A8" r:id="rId7" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/BASFLO_M.VSTX" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A9" r:id="rId8" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/BASICCIRCUIT_DIAGRAM_M.VSTX" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="A10" r:id="rId9" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/BASICD_M.VSTX" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="A11" r:id="rId10" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/BASICELECTRICAL_DIAGRAM_M.VSTX" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="A12" r:id="rId11" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/BASIC_AUDITDIAGRAM_M.VSTX" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="A13" r:id="rId12" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/BASIC_GANTTCHART_M.VSTX" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="A14" r:id="rId13" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/BASIC_HOME_NETWORK_M.VSTX" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="A15" r:id="rId14" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/BASIC_UMLSEQUENCE_M.VSTX" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="A16" r:id="rId15" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/BF_DATAVISUALIZER_M.VSTX" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="A17" r:id="rId16" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/BLOCKP_M.VSTX" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="A18" r:id="rId17" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/BLOCK_M.VSTX" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="A19" r:id="rId18" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/BPMN_ADDRESS_CHANGE_PROCESS_M.VSTX" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="A20" r:id="rId19" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/BPMN_M.VSTX" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="A21" r:id="rId20" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/BPMN_PROCESS_GATEWAY_M.VSTX" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="A22" r:id="rId21" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/BPMN_PROCESS_MULTIPLE_ROLES_M.VSTX" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="A23" r:id="rId22" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/BSTORM_M.VSTX" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="A24" r:id="rId23" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/CALNDR_M.VSTX" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="A25" r:id="rId24" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/CAUSEF_M.VSTX" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="A26" r:id="rId25" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/CEILPL_M.VSTX" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="A27" r:id="rId26" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/CFF_DATAVISUALIZER_M.VSTX" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="A28" r:id="rId27" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/CFF_HORIZONTAL_M.VSTX" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="A29" r:id="rId28" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/CFF_SHAREDPROCESS_M.VSTX" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="A30" r:id="rId29" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/CFF_VERTICAL_M.VSTX" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="A31" r:id="rId30" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/CHART_M.VSTX" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="A32" r:id="rId31" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/COMOLE_M.VSTX" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="A33" r:id="rId32" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/CONLOG_M.VSTX" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="A34" r:id="rId33" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/DATFLO_M.VSTX" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="A35" r:id="rId34" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/DATMOD_M.VSTX" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="A36" r:id="rId35" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/DBCHEN_M.VSTX" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="A37" r:id="rId36" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/DBCROW_M.VSTX" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="A38" r:id="rId37" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/DBIDEF1X_M.VSTX" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="A39" r:id="rId38" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/DBMODL_M.VSTX" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="A40" r:id="rId39" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/DBUML_M.VSTX" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="A41" r:id="rId40" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/DEPTORGCHART_M.VSTX" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="A42" r:id="rId41" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/DOCUMENT_APPROVAL_WORKFLOW_M.VSTX" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="A43" r:id="rId42" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/DRILLD_M.VSTX" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="A44" r:id="rId43" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/DTLNET_M.VSTX" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="A45" r:id="rId44" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/DTLNME_M.VSTX" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="A46" r:id="rId45" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/DWGCNV_M.VSTX" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="A47" r:id="rId46" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/EDU_EECHIP_M.VSTX" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="A48" r:id="rId47" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/EECHIP_M.VSTX" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="A49" r:id="rId48" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/EEGENR_M.VSTX" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="A50" r:id="rId49" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/EEICS_M.VSTX" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="A51" r:id="rId50" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/EESYS_M.VSTX" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="A52" r:id="rId51" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/ELETEL_M.VSTX" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="A53" r:id="rId52" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/ENTAPP_M.VSTX" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="A54" r:id="rId53" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/EPC_M.VSTX" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="A55" r:id="rId54" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/FAULT_M.VSTX" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="A56" r:id="rId55" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/FLRPLN_M.VSTX" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="A57" r:id="rId56" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/FPALL_M.VSTX" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="A58" r:id="rId57" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/GANTT_M.VSTX" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="A59" r:id="rId58" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/HIERARCHICALORGCHART_M.VSTX" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="A60" r:id="rId59" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/HOMPLN_M.VSTX" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="A61" r:id="rId60" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/HVAC_M.VSTX" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="A62" r:id="rId61" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/IDEF0_M.VSTX" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="A63" r:id="rId62" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/INTERFACE_UML_CLASS_M.VSTX" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="A64" r:id="rId63" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/ITIL_M.VSTX" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="A65" r:id="rId64" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/LDAPDR_M.VSTX" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="A66" r:id="rId65" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/MAP3D_M.VSTX" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="A67" r:id="rId66" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/MAP_M.VSTX" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="A68" r:id="rId67" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/MEALL_M.VSTX" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="A69" r:id="rId68" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/MEDIUMENTERPRISECORPNET_M.VSTX" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="A70" r:id="rId69" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/MRKTDG_M.VSTX" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="A71" r:id="rId70" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/NETWME_M.VSTX" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="A72" r:id="rId71" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/NETW_M.VSTX" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="A73" r:id="rId72" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/OFFLYT_M.VSTX" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="A74" r:id="rId73" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/ONPAGEFLOWCHART_M.VSTX" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="A75" r:id="rId74" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/ORGCH_M.VSTX" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="A76" r:id="rId75" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/ORGWIZ_M.VSTX" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="A77" r:id="rId76" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/PBASLN_M.VSTX" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="A78" r:id="rId77" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/PBLANK_M.VSTX" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="A79" r:id="rId78" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/PCRTSK_M.VSTX" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="A80" r:id="rId79" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/PCSHFL_M.VSTX" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="A81" r:id="rId80" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/PEDG_M.VSTX" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="A82" r:id="rId81" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/PEPIPE_M.VSTX" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="A83" r:id="rId82" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/PERT_M.VSTX" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="A84" r:id="rId83" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/PLMPIP_M.VSTX" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="A85" r:id="rId84" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/PLTLYT_M.VSTX" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="A86" r:id="rId85" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/PRSAVL_M.VSTX" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="A87" r:id="rId86" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/PRSSTS_M.VSTX" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="A88" r:id="rId87" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/PSTRCT_M.VSTX" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="A89" r:id="rId88" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/PTSKST_M.VSTX" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="A90" r:id="rId89" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/RACK_M.VSTX" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="A91" r:id="rId90" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/SDL_M.VSTX" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="A92" r:id="rId91" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/SECACC_M.VSTX" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="A93" r:id="rId92" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/SHAREPOINT_EXTRANETTOPOLOGY_M.VSTX" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="A94" r:id="rId93" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/SIMPLE_WORKFLOW_M.VSTX" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="A95" r:id="rId94" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/SITPLN_M.VSTX" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="A96" r:id="rId95" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/SIXSIG_M.VSTX" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="A97" r:id="rId96" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/SMALLMEDIUM_BUSINESS_NETWORK_M.VSTX" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="A98" r:id="rId97" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/SPCPLN_M.VSTX" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="A99" r:id="rId98" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/SPW2_M.VSTX" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="A100" r:id="rId99" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/SPW_M.VSTX" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="A101" r:id="rId100" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/SUBPROCESSFLOWCHART_M.VSTX" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="A102" r:id="rId101" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/SUBTASKS_GANTTCHART_M.VSTX" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="A103" r:id="rId102" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/TIMELN_CYLINDRICAL_M.VSTX" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="A104" r:id="rId103" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/TIMELN_EXPANDEDBLOCK_M.VSTX" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="A105" r:id="rId104" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/TIMELN_M.VSTX" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="A106" r:id="rId105" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/TIMELN_VERTICALBLOCK_M.VSTX" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="A107" r:id="rId106" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/TQM_M.VSTX" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="A108" r:id="rId107" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/UACTME_M.VSTX" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="A109" r:id="rId108" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/UCMNME_BASIC_M.VSTX" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="A110" r:id="rId109" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/UCMNME_BASIC_R2L.VSTX" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="A111" r:id="rId110" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/UCMNME_M.VSTX" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="A112" r:id="rId111" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/UCMNME_SEQUENCEEXPRESSION_1_M.VSTX" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="A113" r:id="rId112" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/UCMNME_SEQUENCEEXPRESSION_1_R2L.VSTX" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="A114" r:id="rId113" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/UCMNME_SEQUENCEEXPRESSION_2_M.VSTX" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="A115" r:id="rId114" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/UCMNME_SEQUENCEEXPRESSION_2_R2L.VSTX" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="A116" r:id="rId115" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/UCOMME_BASIC_M.VSTX" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="A117" r:id="rId116" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/UCOMME_BASIC_R2L.VSTX" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="A118" r:id="rId117" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/UCOMME_M.VSTX" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="A119" r:id="rId118" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/UCOMME_MODULE_M.VSTX" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="A120" r:id="rId119" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/UCOMME_MODULE_R2L.VSTX" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="A121" r:id="rId120" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/UCOMME_SUBSYSTEM_M.VSTX" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="A122" r:id="rId121" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/UCOMME_SUBSYSTEM_R2L.VSTX" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="A123" r:id="rId122" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/UDEPME_BASIC_M.VSTX" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="A124" r:id="rId123" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/UDEPME_BASIC_R2L.VSTX" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="A125" r:id="rId124" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/UDEPME_HIERARCHICAL_NODES_M.VSTX" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="A126" r:id="rId125" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/UDEPME_HIERARCHICAL_NODES_R2L.VSTX" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="A127" r:id="rId126" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/UDEPME_M.VSTX" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="A128" r:id="rId127" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/UDEPME_MANIFESTATION_M.VSTX" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="A129" r:id="rId128" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/UDEPME_MANIFESTATION_R2L.VSTX" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="A130" r:id="rId129" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/UMLSEQUENCE_INTERACTIONFRAME_M.VSTX" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="A131" r:id="rId130" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/UMLSEQUENCE_LOOP_M.VSTX" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="A132" r:id="rId131" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/UML_CLASS_M.VSTX" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="A133" r:id="rId132" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/UML_USECASE_DEPENDENCIES_M.VSTX" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="A134" r:id="rId133" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/UML_USECASE_M.VSTX" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="A135" r:id="rId134" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/UML_USECASE_SUBSYSTEM_M.VSTX" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="A136" r:id="rId135" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/USEQME_M.VSTX" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="A137" r:id="rId136" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/USTAME_M.VSTX" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="A138" r:id="rId137" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/USTRME_M.VSTX" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="A139" r:id="rId138" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/UUSEME_M.VSTX" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="A140" r:id="rId139" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/VERTICALFLOWCHART_M.VSTX" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="A141" r:id="rId140" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/VSM_M.VSTX" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="A142" r:id="rId141" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/WEBMAP_M.VSTX" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="A143" r:id="rId142" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/WEBSIT_M.VSTX" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="A144" r:id="rId143" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/WFDGM_M.VSTX" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="A145" r:id="rId144" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/WORKFLOW_DEPARTMENTAL_M.VSTX" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="A146" r:id="rId145" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/WORKFLOW_FUNCTION_M.VSTX" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="A147" r:id="rId146" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/WORKFLOW_PROCESS_M.VSTX" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="A148" r:id="rId147" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/WRKFLO_M.VSTX" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="A149" r:id="rId148" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/WRKFME_M.VSTX" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="A150" r:id="rId149" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/WWFC_BLOG_M.VSTX" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="A151" r:id="rId150" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/WWFC_BLOG_R2L.VSTX" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="A152" r:id="rId151" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/WWFC_CONTENTRICH_M.VSTX" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="A153" r:id="rId152" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/WWFC_CONTENTRICH_R2L.VSTX" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="A154" r:id="rId153" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/WWFC_ECOMMERCE_M.VSTX" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="A155" r:id="rId154" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/WWFC_ECOMMERCE_R2L.VSTX" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="A156" r:id="rId155" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/WWFC_M.VSTX" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="A157" r:id="rId156" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/XFUNC_M.VSTX" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId157"/>

--- a/helpful/VisioTemplates_Stats.xlsx
+++ b/helpful/VisioTemplates_Stats.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16655C92-F4AA-4135-86BE-0AB197661FF3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E1C9B3-45AA-4D67-A86A-06CBEA7AE6F5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10546" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1512,7 +1512,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1832,7 +1832,7 @@
   <dimension ref="A1:Q157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1971,7 +1971,7 @@
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="9" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -2000,7 +2000,7 @@
       <c r="Q4" s="1"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="9" t="s">
         <v>30</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -2033,7 +2033,7 @@
       <c r="Q5" s="1"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -2066,7 +2066,7 @@
       <c r="Q6" s="1"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="9" t="s">
         <v>36</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -2099,7 +2099,7 @@
       <c r="Q7" s="1"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="9" t="s">
         <v>38</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -2130,7 +2130,7 @@
       <c r="Q8" s="1"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="9" t="s">
         <v>41</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -2167,7 +2167,7 @@
       <c r="Q9" s="1"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="9" t="s">
         <v>48</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -2200,7 +2200,7 @@
       <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="9" t="s">
         <v>52</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -2237,7 +2237,7 @@
       <c r="Q11" s="1"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="9" t="s">
         <v>54</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -2270,7 +2270,7 @@
       <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="9" t="s">
         <v>56</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -2299,7 +2299,7 @@
       <c r="Q13" s="1"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="9" t="s">
         <v>58</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -2330,7 +2330,7 @@
       <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="9" t="s">
         <v>62</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -2359,7 +2359,7 @@
       <c r="Q15" s="1"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="9" t="s">
         <v>65</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -2386,7 +2386,7 @@
       <c r="Q16" s="1"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="9" t="s">
         <v>67</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -2415,7 +2415,7 @@
       <c r="Q17" s="1"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="9" t="s">
         <v>69</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -2446,7 +2446,7 @@
       <c r="Q18" s="1"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="9" t="s">
         <v>72</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -2475,7 +2475,7 @@
       <c r="Q19" s="1"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="9" t="s">
         <v>74</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -2504,7 +2504,7 @@
       <c r="Q20" s="1"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="9" t="s">
         <v>76</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -2533,7 +2533,7 @@
       <c r="Q21" s="1"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="9" t="s">
         <v>78</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -2562,7 +2562,7 @@
       <c r="Q22" s="1"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="9" t="s">
         <v>80</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -2593,7 +2593,7 @@
       <c r="Q23" s="1"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="9" t="s">
         <v>83</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -2622,7 +2622,7 @@
       <c r="Q24" s="1"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="9" t="s">
         <v>85</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -2653,7 +2653,7 @@
       <c r="Q25" s="1"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="9" t="s">
         <v>87</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -2692,7 +2692,7 @@
       <c r="Q26" s="1"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="9" t="s">
         <v>95</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -2721,7 +2721,7 @@
       <c r="Q27" s="1"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="9" t="s">
         <v>97</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -2752,7 +2752,7 @@
       <c r="Q28" s="1"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="9" t="s">
         <v>99</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -2783,7 +2783,7 @@
       <c r="Q29" s="1"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="9" t="s">
         <v>101</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -2814,7 +2814,7 @@
       <c r="Q30" s="1"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="9" t="s">
         <v>103</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -2843,7 +2843,7 @@
       <c r="Q31" s="1"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="9" t="s">
         <v>105</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -2872,7 +2872,7 @@
       <c r="Q32" s="1"/>
     </row>
     <row r="33" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="9" t="s">
         <v>107</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -2905,7 +2905,7 @@
       <c r="Q33" s="1"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="9" t="s">
         <v>111</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -2936,7 +2936,7 @@
       <c r="Q34" s="1"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="9" t="s">
         <v>113</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -2965,7 +2965,7 @@
       <c r="Q35" s="1"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="9" t="s">
         <v>116</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -2994,7 +2994,7 @@
       <c r="Q36" s="1"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="9" t="s">
         <v>118</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -3023,7 +3023,7 @@
       <c r="Q37" s="1"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="9" t="s">
         <v>120</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -3052,7 +3052,7 @@
       <c r="Q38" s="1"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="9" t="s">
         <v>122</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -3081,7 +3081,7 @@
       <c r="Q39" s="1"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="9" t="s">
         <v>125</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -3110,7 +3110,7 @@
       <c r="Q40" s="1"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="9" t="s">
         <v>127</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -3139,7 +3139,7 @@
       <c r="Q41" s="1"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="9" t="s">
         <v>130</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -3172,7 +3172,7 @@
       <c r="Q42" s="1"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="9" t="s">
         <v>135</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -3205,7 +3205,7 @@
       <c r="Q43" s="1"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="9" t="s">
         <v>139</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -3248,7 +3248,7 @@
       <c r="Q44" s="1"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A45" s="8" t="s">
+      <c r="A45" s="9" t="s">
         <v>147</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -3289,7 +3289,7 @@
       <c r="Q45" s="1"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A46" s="8" t="s">
+      <c r="A46" s="9" t="s">
         <v>153</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -3314,7 +3314,7 @@
       <c r="Q46" s="1"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A47" s="8" t="s">
+      <c r="A47" s="9" t="s">
         <v>155</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -3349,7 +3349,7 @@
       <c r="Q47" s="1"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A48" s="8" t="s">
+      <c r="A48" s="9" t="s">
         <v>158</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -3384,7 +3384,7 @@
       <c r="Q48" s="1"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A49" s="8" t="s">
+      <c r="A49" s="9" t="s">
         <v>160</v>
       </c>
       <c r="B49" s="2" t="s">
@@ -3421,7 +3421,7 @@
       <c r="Q49" s="1"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A50" s="8" t="s">
+      <c r="A50" s="9" t="s">
         <v>162</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -3460,7 +3460,7 @@
       <c r="Q50" s="1"/>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A51" s="8" t="s">
+      <c r="A51" s="9" t="s">
         <v>166</v>
       </c>
       <c r="B51" s="2" t="s">
@@ -6928,162 +6928,162 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="..\..\..\..\..\..\Program Files (x86)\Microsoft Office\root\Office16\Visio Content\1049\ACTDIR_M.VSTX" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="A3" r:id="rId2" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/ACTUAL_FINISHDATES_GANTTCHART_M.VSTX" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="A4" r:id="rId3" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/ASSOCIATIONS_UML_CLASS_M.VSTX" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="A5" r:id="rId4" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/AUDIT_M.VSTX" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="A6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="A7" r:id="rId6" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/AUDIT_SUBPROCESS_M.VSTX" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="A8" r:id="rId7" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/BASFLO_M.VSTX" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="A9" r:id="rId8" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/BASICCIRCUIT_DIAGRAM_M.VSTX" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="A10" r:id="rId9" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/BASICD_M.VSTX" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="A11" r:id="rId10" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/BASICELECTRICAL_DIAGRAM_M.VSTX" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="A12" r:id="rId11" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/BASIC_AUDITDIAGRAM_M.VSTX" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="A13" r:id="rId12" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/BASIC_GANTTCHART_M.VSTX" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="A14" r:id="rId13" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/BASIC_HOME_NETWORK_M.VSTX" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="A15" r:id="rId14" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/BASIC_UMLSEQUENCE_M.VSTX" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="A16" r:id="rId15" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/BF_DATAVISUALIZER_M.VSTX" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="A17" r:id="rId16" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/BLOCKP_M.VSTX" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="A18" r:id="rId17" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/BLOCK_M.VSTX" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="A19" r:id="rId18" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/BPMN_ADDRESS_CHANGE_PROCESS_M.VSTX" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="A20" r:id="rId19" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/BPMN_M.VSTX" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="A21" r:id="rId20" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/BPMN_PROCESS_GATEWAY_M.VSTX" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="A22" r:id="rId21" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/BPMN_PROCESS_MULTIPLE_ROLES_M.VSTX" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="A23" r:id="rId22" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/BSTORM_M.VSTX" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="A24" r:id="rId23" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/CALNDR_M.VSTX" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="A25" r:id="rId24" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/CAUSEF_M.VSTX" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="A26" r:id="rId25" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/CEILPL_M.VSTX" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="A27" r:id="rId26" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/CFF_DATAVISUALIZER_M.VSTX" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="A28" r:id="rId27" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/CFF_HORIZONTAL_M.VSTX" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="A29" r:id="rId28" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/CFF_SHAREDPROCESS_M.VSTX" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="A30" r:id="rId29" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/CFF_VERTICAL_M.VSTX" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="A31" r:id="rId30" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/CHART_M.VSTX" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="A32" r:id="rId31" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/COMOLE_M.VSTX" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="A33" r:id="rId32" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/CONLOG_M.VSTX" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="A34" r:id="rId33" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/DATFLO_M.VSTX" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="A35" r:id="rId34" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/DATMOD_M.VSTX" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="A36" r:id="rId35" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/DBCHEN_M.VSTX" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="A37" r:id="rId36" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/DBCROW_M.VSTX" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="A38" r:id="rId37" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/DBIDEF1X_M.VSTX" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="A39" r:id="rId38" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/DBMODL_M.VSTX" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="A40" r:id="rId39" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/DBUML_M.VSTX" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="A41" r:id="rId40" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/DEPTORGCHART_M.VSTX" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="A42" r:id="rId41" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/DOCUMENT_APPROVAL_WORKFLOW_M.VSTX" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="A43" r:id="rId42" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/DRILLD_M.VSTX" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="A44" r:id="rId43" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/DTLNET_M.VSTX" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="A45" r:id="rId44" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/DTLNME_M.VSTX" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="A46" r:id="rId45" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/DWGCNV_M.VSTX" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="A47" r:id="rId46" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/EDU_EECHIP_M.VSTX" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="A48" r:id="rId47" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/EECHIP_M.VSTX" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="A49" r:id="rId48" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/EEGENR_M.VSTX" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="A50" r:id="rId49" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/EEICS_M.VSTX" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="A51" r:id="rId50" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/EESYS_M.VSTX" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="A52" r:id="rId51" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/ELETEL_M.VSTX" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="A53" r:id="rId52" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/ENTAPP_M.VSTX" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="A54" r:id="rId53" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/EPC_M.VSTX" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="A55" r:id="rId54" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/FAULT_M.VSTX" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="A56" r:id="rId55" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/FLRPLN_M.VSTX" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="A57" r:id="rId56" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/FPALL_M.VSTX" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="A58" r:id="rId57" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/GANTT_M.VSTX" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="A59" r:id="rId58" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/HIERARCHICALORGCHART_M.VSTX" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="A60" r:id="rId59" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/HOMPLN_M.VSTX" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="A61" r:id="rId60" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/HVAC_M.VSTX" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="A62" r:id="rId61" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/IDEF0_M.VSTX" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="A63" r:id="rId62" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/INTERFACE_UML_CLASS_M.VSTX" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="A64" r:id="rId63" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/ITIL_M.VSTX" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="A65" r:id="rId64" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/LDAPDR_M.VSTX" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="A66" r:id="rId65" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/MAP3D_M.VSTX" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="A67" r:id="rId66" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/MAP_M.VSTX" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="A68" r:id="rId67" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/MEALL_M.VSTX" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="A69" r:id="rId68" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/MEDIUMENTERPRISECORPNET_M.VSTX" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="A70" r:id="rId69" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/MRKTDG_M.VSTX" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="A71" r:id="rId70" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/NETWME_M.VSTX" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="A72" r:id="rId71" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/NETW_M.VSTX" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="A73" r:id="rId72" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/OFFLYT_M.VSTX" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="A74" r:id="rId73" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/ONPAGEFLOWCHART_M.VSTX" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="A75" r:id="rId74" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/ORGCH_M.VSTX" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="A76" r:id="rId75" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/ORGWIZ_M.VSTX" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="A77" r:id="rId76" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/PBASLN_M.VSTX" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="A78" r:id="rId77" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/PBLANK_M.VSTX" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="A79" r:id="rId78" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/PCRTSK_M.VSTX" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="A80" r:id="rId79" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/PCSHFL_M.VSTX" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="A81" r:id="rId80" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/PEDG_M.VSTX" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="A82" r:id="rId81" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/PEPIPE_M.VSTX" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="A83" r:id="rId82" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/PERT_M.VSTX" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="A84" r:id="rId83" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/PLMPIP_M.VSTX" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="A85" r:id="rId84" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/PLTLYT_M.VSTX" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="A86" r:id="rId85" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/PRSAVL_M.VSTX" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="A87" r:id="rId86" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/PRSSTS_M.VSTX" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="A88" r:id="rId87" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/PSTRCT_M.VSTX" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="A89" r:id="rId88" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/PTSKST_M.VSTX" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="A90" r:id="rId89" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/RACK_M.VSTX" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="A91" r:id="rId90" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/SDL_M.VSTX" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="A92" r:id="rId91" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/SECACC_M.VSTX" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="A93" r:id="rId92" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/SHAREPOINT_EXTRANETTOPOLOGY_M.VSTX" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="A94" r:id="rId93" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/SIMPLE_WORKFLOW_M.VSTX" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="A95" r:id="rId94" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/SITPLN_M.VSTX" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="A96" r:id="rId95" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/SIXSIG_M.VSTX" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="A97" r:id="rId96" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/SMALLMEDIUM_BUSINESS_NETWORK_M.VSTX" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="A98" r:id="rId97" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/SPCPLN_M.VSTX" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="A99" r:id="rId98" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/SPW2_M.VSTX" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="A100" r:id="rId99" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/SPW_M.VSTX" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="A101" r:id="rId100" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/SUBPROCESSFLOWCHART_M.VSTX" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="A102" r:id="rId101" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/SUBTASKS_GANTTCHART_M.VSTX" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="A103" r:id="rId102" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/TIMELN_CYLINDRICAL_M.VSTX" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="A104" r:id="rId103" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/TIMELN_EXPANDEDBLOCK_M.VSTX" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="A105" r:id="rId104" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/TIMELN_M.VSTX" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="A106" r:id="rId105" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/TIMELN_VERTICALBLOCK_M.VSTX" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="A107" r:id="rId106" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/TQM_M.VSTX" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="A108" r:id="rId107" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/UACTME_M.VSTX" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="A109" r:id="rId108" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/UCMNME_BASIC_M.VSTX" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="A110" r:id="rId109" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/UCMNME_BASIC_R2L.VSTX" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="A111" r:id="rId110" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/UCMNME_M.VSTX" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="A112" r:id="rId111" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/UCMNME_SEQUENCEEXPRESSION_1_M.VSTX" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="A113" r:id="rId112" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/UCMNME_SEQUENCEEXPRESSION_1_R2L.VSTX" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="A114" r:id="rId113" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/UCMNME_SEQUENCEEXPRESSION_2_M.VSTX" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="A115" r:id="rId114" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/UCMNME_SEQUENCEEXPRESSION_2_R2L.VSTX" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="A116" r:id="rId115" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/UCOMME_BASIC_M.VSTX" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="A117" r:id="rId116" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/UCOMME_BASIC_R2L.VSTX" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="A118" r:id="rId117" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/UCOMME_M.VSTX" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="A119" r:id="rId118" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/UCOMME_MODULE_M.VSTX" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="A120" r:id="rId119" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/UCOMME_MODULE_R2L.VSTX" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="A121" r:id="rId120" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/UCOMME_SUBSYSTEM_M.VSTX" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="A122" r:id="rId121" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/UCOMME_SUBSYSTEM_R2L.VSTX" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="A123" r:id="rId122" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/UDEPME_BASIC_M.VSTX" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="A124" r:id="rId123" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/UDEPME_BASIC_R2L.VSTX" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="A125" r:id="rId124" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/UDEPME_HIERARCHICAL_NODES_M.VSTX" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="A126" r:id="rId125" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/UDEPME_HIERARCHICAL_NODES_R2L.VSTX" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="A127" r:id="rId126" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/UDEPME_M.VSTX" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="A128" r:id="rId127" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/UDEPME_MANIFESTATION_M.VSTX" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="A129" r:id="rId128" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/UDEPME_MANIFESTATION_R2L.VSTX" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="A130" r:id="rId129" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/UMLSEQUENCE_INTERACTIONFRAME_M.VSTX" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="A131" r:id="rId130" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/UMLSEQUENCE_LOOP_M.VSTX" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="A132" r:id="rId131" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/UML_CLASS_M.VSTX" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="A133" r:id="rId132" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/UML_USECASE_DEPENDENCIES_M.VSTX" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="A134" r:id="rId133" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/UML_USECASE_M.VSTX" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="A135" r:id="rId134" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/UML_USECASE_SUBSYSTEM_M.VSTX" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="A136" r:id="rId135" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/USEQME_M.VSTX" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="A137" r:id="rId136" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/USTAME_M.VSTX" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="A138" r:id="rId137" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/USTRME_M.VSTX" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="A139" r:id="rId138" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/UUSEME_M.VSTX" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="A140" r:id="rId139" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/VERTICALFLOWCHART_M.VSTX" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="A141" r:id="rId140" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/VSM_M.VSTX" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="A142" r:id="rId141" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/WEBMAP_M.VSTX" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="A143" r:id="rId142" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/WEBSIT_M.VSTX" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="A144" r:id="rId143" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/WFDGM_M.VSTX" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="A145" r:id="rId144" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/WORKFLOW_DEPARTMENTAL_M.VSTX" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="A146" r:id="rId145" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/WORKFLOW_FUNCTION_M.VSTX" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="A147" r:id="rId146" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/WORKFLOW_PROCESS_M.VSTX" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="A148" r:id="rId147" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/WRKFLO_M.VSTX" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="A149" r:id="rId148" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/WRKFME_M.VSTX" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="A150" r:id="rId149" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/WWFC_BLOG_M.VSTX" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="A151" r:id="rId150" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/WWFC_BLOG_R2L.VSTX" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="A152" r:id="rId151" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/WWFC_CONTENTRICH_M.VSTX" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="A153" r:id="rId152" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/WWFC_CONTENTRICH_R2L.VSTX" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="A154" r:id="rId153" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/WWFC_ECOMMERCE_M.VSTX" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="A155" r:id="rId154" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/WWFC_ECOMMERCE_R2L.VSTX" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="A156" r:id="rId155" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/WWFC_M.VSTX" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="A157" r:id="rId156" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/XFUNC_M.VSTX" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{E96C683E-B503-4969-8739-556F94CAC69F}"/>
+    <hyperlink ref="A3" r:id="rId2" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/ACTUAL_FINISHDATES_GANTTCHART_M.VSTX" xr:uid="{961D2BB5-9680-4411-B69D-5F602D54A649}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{84102B40-ECDF-4DE9-AE88-FE2B7D356321}"/>
+    <hyperlink ref="A157" r:id="rId4" xr:uid="{67F3E2A2-ABAB-47EB-B6E0-B134BBD3FBBB}"/>
+    <hyperlink ref="A156" r:id="rId5" xr:uid="{F71203A9-901E-4084-BCA9-9BD536C17A25}"/>
+    <hyperlink ref="A155" r:id="rId6" xr:uid="{94A4091E-01BF-4A73-B798-0EA4E42D2AEA}"/>
+    <hyperlink ref="A154" r:id="rId7" xr:uid="{7ECD5417-F2DE-4014-8749-DCA068FB24DF}"/>
+    <hyperlink ref="A153" r:id="rId8" xr:uid="{3F370577-B676-48D6-9513-ACD9CB05C1BC}"/>
+    <hyperlink ref="A152" r:id="rId9" xr:uid="{62803163-678B-4B94-8979-C346404C4202}"/>
+    <hyperlink ref="A151" r:id="rId10" xr:uid="{6043FE91-DBFC-403E-9E4B-4CAE50DEC63E}"/>
+    <hyperlink ref="A150" r:id="rId11" xr:uid="{8FAAFEFC-C7AF-41CF-A473-1D1E8BF00465}"/>
+    <hyperlink ref="A149" r:id="rId12" xr:uid="{34F00F33-FF40-41D8-9209-B3013F0B4B51}"/>
+    <hyperlink ref="A148" r:id="rId13" xr:uid="{A8D8D57A-C542-4477-B857-4130CCBF2F41}"/>
+    <hyperlink ref="A147" r:id="rId14" xr:uid="{D948F96A-6502-4129-A2D1-4AA700667268}"/>
+    <hyperlink ref="A146" r:id="rId15" xr:uid="{3CFA9DB3-50D6-4AF5-B739-249A0F104C3B}"/>
+    <hyperlink ref="A145" r:id="rId16" xr:uid="{512FFBB8-1733-40D2-B7E2-7C3ED9231EC5}"/>
+    <hyperlink ref="A144" r:id="rId17" xr:uid="{BBB53011-E19F-40AA-BC9C-3E9F7D3917F6}"/>
+    <hyperlink ref="A143" r:id="rId18" xr:uid="{0126013D-A58E-4107-A40D-921E2BAA5BF2}"/>
+    <hyperlink ref="A142" r:id="rId19" xr:uid="{A733F893-04ED-444A-AE71-1A1E2BCA3C80}"/>
+    <hyperlink ref="A141" r:id="rId20" xr:uid="{A86C56C5-BBF3-4CB1-A8C5-EFA8BC624495}"/>
+    <hyperlink ref="A140" r:id="rId21" xr:uid="{1D024248-EF36-48E0-97F7-CAB112B5645F}"/>
+    <hyperlink ref="A139" r:id="rId22" xr:uid="{018A28FA-5A87-41FE-87DE-C79A8AABDCD0}"/>
+    <hyperlink ref="A138" r:id="rId23" xr:uid="{DC0F2AF8-9A4A-4A3E-A3C5-FAA54089AC8E}"/>
+    <hyperlink ref="A137" r:id="rId24" xr:uid="{B63BF417-C8B9-43F2-A48F-D5C63E719D80}"/>
+    <hyperlink ref="A136" r:id="rId25" xr:uid="{FB735693-E218-4C57-ABBB-21A64DC84043}"/>
+    <hyperlink ref="A135" r:id="rId26" xr:uid="{876C9555-1825-4DD3-A866-01F81A051CDE}"/>
+    <hyperlink ref="A134" r:id="rId27" xr:uid="{13122E35-B6EF-4D9B-8E0E-CA6388840F89}"/>
+    <hyperlink ref="A133" r:id="rId28" xr:uid="{C47C8099-C020-4259-9E85-83261934C0E3}"/>
+    <hyperlink ref="A132" r:id="rId29" xr:uid="{8353C8C2-BC57-4408-9A5D-7A6C5593CC10}"/>
+    <hyperlink ref="A131" r:id="rId30" xr:uid="{44C29E09-957E-4374-B21C-21A12429C20F}"/>
+    <hyperlink ref="A130" r:id="rId31" xr:uid="{B8A1ACA6-A1B4-40D4-806A-9CB058BDE34B}"/>
+    <hyperlink ref="A129" r:id="rId32" xr:uid="{A6EF404C-5B4A-4237-89D6-DA4999099953}"/>
+    <hyperlink ref="A128" r:id="rId33" xr:uid="{5940A4B5-5EB2-42F9-B460-93729F0378F2}"/>
+    <hyperlink ref="A127" r:id="rId34" xr:uid="{AEDE7845-46EC-4FC7-90FF-7EE7A82F32F6}"/>
+    <hyperlink ref="A126" r:id="rId35" xr:uid="{6B933CD0-ABE7-4AAE-ADE2-121EF2E50985}"/>
+    <hyperlink ref="A125" r:id="rId36" xr:uid="{EE494F00-9752-4486-B0C8-543770579DCB}"/>
+    <hyperlink ref="A124" r:id="rId37" xr:uid="{E28069AD-284B-4907-805A-DADF2FE18E87}"/>
+    <hyperlink ref="A123" r:id="rId38" xr:uid="{F1DA669A-E5EE-4EF4-8041-C52D34B455E3}"/>
+    <hyperlink ref="A122" r:id="rId39" xr:uid="{631016DD-E68E-4598-B663-22AB50AAFE77}"/>
+    <hyperlink ref="A121" r:id="rId40" xr:uid="{83636BF9-3DAE-4DDA-B8AB-8B1DDAADB1F8}"/>
+    <hyperlink ref="A120" r:id="rId41" xr:uid="{DC989A4F-78D6-4FFC-A095-151085223571}"/>
+    <hyperlink ref="A119" r:id="rId42" xr:uid="{2B599E00-8EBE-4F26-8311-9D58EEB53872}"/>
+    <hyperlink ref="A118" r:id="rId43" xr:uid="{11DC71F5-1F72-403E-B7D6-E6A93ED8ABC3}"/>
+    <hyperlink ref="A117" r:id="rId44" xr:uid="{E0938645-C604-4E7A-9AFA-783EB3AC97E3}"/>
+    <hyperlink ref="A116" r:id="rId45" xr:uid="{8B88C953-446E-4CC3-8589-2D41B03364A0}"/>
+    <hyperlink ref="A115" r:id="rId46" xr:uid="{200E838D-F8A4-41CB-A580-AFE97CA48859}"/>
+    <hyperlink ref="A114" r:id="rId47" xr:uid="{B607BEF5-EBAC-4632-A639-304CC11EBD26}"/>
+    <hyperlink ref="A113" r:id="rId48" xr:uid="{6999D4BD-9472-4234-80C4-91C8462847D3}"/>
+    <hyperlink ref="A112" r:id="rId49" xr:uid="{5476EF90-84CE-4AA7-A43D-E9E7A0DE1710}"/>
+    <hyperlink ref="A111" r:id="rId50" xr:uid="{292BE876-5B30-48EE-8F48-3871BAB005E0}"/>
+    <hyperlink ref="A110" r:id="rId51" xr:uid="{74D4FDA3-B040-4252-95A1-FC941A6CE935}"/>
+    <hyperlink ref="A109" r:id="rId52" xr:uid="{7984C13D-B908-4102-992B-204BA58C26F8}"/>
+    <hyperlink ref="A108" r:id="rId53" xr:uid="{A55CE6EA-2769-4DF4-8BD1-A38E76B4C6C0}"/>
+    <hyperlink ref="A107" r:id="rId54" xr:uid="{254D1092-5B27-4A41-976E-2F2C8864ED1F}"/>
+    <hyperlink ref="A106" r:id="rId55" xr:uid="{5A15CBBC-CABD-43D2-A94B-6427C8798416}"/>
+    <hyperlink ref="A105" r:id="rId56" xr:uid="{616E886F-293B-4B7B-BD5B-78D8DAC135F3}"/>
+    <hyperlink ref="A104" r:id="rId57" xr:uid="{8D8E6CA3-F121-4FC2-BE3A-EB58A13045ED}"/>
+    <hyperlink ref="A103" r:id="rId58" xr:uid="{CE0EE683-B718-48DE-8D7C-F24C7726D7EC}"/>
+    <hyperlink ref="A102" r:id="rId59" xr:uid="{9A31257C-AB0A-45BD-861F-4B0C1D86B5D0}"/>
+    <hyperlink ref="A101" r:id="rId60" xr:uid="{F711B332-0BF2-4DD6-AA47-761EBB64E154}"/>
+    <hyperlink ref="A100" r:id="rId61" xr:uid="{E687A849-FFEC-41CE-A560-9D0CC688410E}"/>
+    <hyperlink ref="A99" r:id="rId62" xr:uid="{D3702FF4-4BAA-4006-A9BD-08BC2E3A5C5B}"/>
+    <hyperlink ref="A98" r:id="rId63" xr:uid="{6B1F1D5C-DA80-4E95-BB55-FE5C5CDE11E8}"/>
+    <hyperlink ref="A97" r:id="rId64" xr:uid="{6C8A32A9-6883-435B-B989-509F41378884}"/>
+    <hyperlink ref="A96" r:id="rId65" xr:uid="{232DA7A0-0ABC-46D7-8EE9-E34D769BD5B6}"/>
+    <hyperlink ref="A95" r:id="rId66" xr:uid="{086652A3-2FCA-4161-87B6-85F8B7D7E4B5}"/>
+    <hyperlink ref="A94" r:id="rId67" xr:uid="{E2C04223-7C7C-4636-9843-47FC834E1A4D}"/>
+    <hyperlink ref="A93" r:id="rId68" xr:uid="{62479076-7E99-4774-AB5B-1979CA1FDBB3}"/>
+    <hyperlink ref="A92" r:id="rId69" xr:uid="{BA419263-F5BB-4AA4-82E9-6B9A20512A58}"/>
+    <hyperlink ref="A91" r:id="rId70" xr:uid="{9AC1E0FD-E3F2-4945-9D60-F3B59403423F}"/>
+    <hyperlink ref="A90" r:id="rId71" xr:uid="{B34B86EE-37FD-42B2-892B-8A555D5C4AEC}"/>
+    <hyperlink ref="A89" r:id="rId72" xr:uid="{9DCC01E4-D5BF-42B1-A778-298E2F5504A2}"/>
+    <hyperlink ref="A88" r:id="rId73" xr:uid="{D42ACBDA-0A31-4049-9CB9-775F42F4C5CE}"/>
+    <hyperlink ref="A87" r:id="rId74" xr:uid="{B94D2ED4-E708-4AA1-A00F-F274B717D913}"/>
+    <hyperlink ref="A86" r:id="rId75" xr:uid="{8BDE6CB3-DE8D-4D62-B15A-24AE11E5C238}"/>
+    <hyperlink ref="A85" r:id="rId76" xr:uid="{F9200980-2D6F-4197-983C-AEEF37AF2946}"/>
+    <hyperlink ref="A84" r:id="rId77" xr:uid="{F964D9EC-44AE-4BE2-9103-1E2F10CF655D}"/>
+    <hyperlink ref="A83" r:id="rId78" xr:uid="{32A59004-2F29-4FB0-97F8-605D7F5A3883}"/>
+    <hyperlink ref="A82" r:id="rId79" xr:uid="{F768453B-BEF7-4D7F-8BFB-D58A03FEC10D}"/>
+    <hyperlink ref="A81" r:id="rId80" xr:uid="{AEBB523B-9E31-4FAB-B048-0A5686347FFC}"/>
+    <hyperlink ref="A80" r:id="rId81" xr:uid="{3B237AC2-9F81-4E9A-AEC0-DF60FE95B467}"/>
+    <hyperlink ref="A79" r:id="rId82" xr:uid="{3251A4EB-6FB8-4A2C-94D3-026117168B2C}"/>
+    <hyperlink ref="A78" r:id="rId83" xr:uid="{DB3F72DA-8AAD-4790-BA02-47E2A2EC00BF}"/>
+    <hyperlink ref="A77" r:id="rId84" xr:uid="{6263799D-EB4F-49B8-B1D5-948CCD149BB4}"/>
+    <hyperlink ref="A76" r:id="rId85" xr:uid="{1262146A-AF1E-45CF-9DE5-2B5A3E27421A}"/>
+    <hyperlink ref="A75" r:id="rId86" xr:uid="{BFAD318D-3190-4364-BA36-50AE38120E45}"/>
+    <hyperlink ref="A74" r:id="rId87" xr:uid="{A524F749-A97D-4384-A55E-5625903F0425}"/>
+    <hyperlink ref="A73" r:id="rId88" xr:uid="{ABC9C551-3E2E-4DED-B9EB-5C2329E7C7B0}"/>
+    <hyperlink ref="A72" r:id="rId89" xr:uid="{8783AFD0-F9EF-43FF-877B-14EB2594F780}"/>
+    <hyperlink ref="A71" r:id="rId90" xr:uid="{685F7FED-2D89-42A1-8431-2584A691B38F}"/>
+    <hyperlink ref="A70" r:id="rId91" xr:uid="{3EDB5B9D-2719-409E-8A39-C7AA39D1481F}"/>
+    <hyperlink ref="A69" r:id="rId92" xr:uid="{A2119EE1-933D-40DF-840A-2CC07A1CAAF3}"/>
+    <hyperlink ref="A68" r:id="rId93" xr:uid="{EC832652-9B12-4106-85C6-85F1139DC894}"/>
+    <hyperlink ref="A67" r:id="rId94" xr:uid="{4046D22A-4F42-4DFB-956E-88D51453FBB1}"/>
+    <hyperlink ref="A66" r:id="rId95" xr:uid="{3007DE6E-C1E1-4BD9-B5B3-B22DB40BB564}"/>
+    <hyperlink ref="A65" r:id="rId96" xr:uid="{541B2B56-E41C-4570-BC6C-50C377CF4AB5}"/>
+    <hyperlink ref="A64" r:id="rId97" xr:uid="{995E7008-F6B4-49E9-BA73-727EB78BAD3D}"/>
+    <hyperlink ref="A63" r:id="rId98" xr:uid="{0ED5327E-5FB6-4FF5-A5C8-A1F75BCFF6E7}"/>
+    <hyperlink ref="A62" r:id="rId99" xr:uid="{5A1D7BC0-B6E5-458E-A702-0BA716983054}"/>
+    <hyperlink ref="A61" r:id="rId100" xr:uid="{40490289-61DD-4107-9834-593EAC48FB77}"/>
+    <hyperlink ref="A60" r:id="rId101" xr:uid="{96AEE566-1EC7-4EDE-9B19-CDA72EBE728B}"/>
+    <hyperlink ref="A59" r:id="rId102" xr:uid="{36978FE6-9052-45A8-B37D-C937B28B0E1C}"/>
+    <hyperlink ref="A58" r:id="rId103" xr:uid="{064F350B-5ECE-40EF-8481-7F0DE57E65F5}"/>
+    <hyperlink ref="A57" r:id="rId104" xr:uid="{C1F79028-0804-4969-9241-F53CFE3807AB}"/>
+    <hyperlink ref="A56" r:id="rId105" xr:uid="{BC5F67FD-1F2B-4A0C-B3B5-AF76575669D4}"/>
+    <hyperlink ref="A55" r:id="rId106" xr:uid="{D4BD938F-3C00-4DEA-9632-9C34AE3C0712}"/>
+    <hyperlink ref="A54" r:id="rId107" xr:uid="{BB18CB29-A901-41E2-80BC-0EE0F0A883AC}"/>
+    <hyperlink ref="A53" r:id="rId108" xr:uid="{EB25A9EE-B343-4627-B202-38D4685F81FA}"/>
+    <hyperlink ref="A52" r:id="rId109" xr:uid="{15FAC4F1-A8E3-4583-AD62-9B1426FF92C3}"/>
+    <hyperlink ref="A51" r:id="rId110" xr:uid="{276F6FA9-A2D0-4FBF-8B80-DC26764A653A}"/>
+    <hyperlink ref="A50" r:id="rId111" xr:uid="{5364851C-F8A8-49CE-967C-5DEF7A378CC1}"/>
+    <hyperlink ref="A49" r:id="rId112" xr:uid="{FE73D752-E0BA-42DD-8568-495104EDF544}"/>
+    <hyperlink ref="A48" r:id="rId113" xr:uid="{183DF729-155D-40F2-874A-82B18914F6F1}"/>
+    <hyperlink ref="A47" r:id="rId114" xr:uid="{F6737AC2-76E8-451B-95D1-5D5699AFCF2F}"/>
+    <hyperlink ref="A46" r:id="rId115" xr:uid="{A9001197-D6DC-44D5-9CD2-61DA8D830D51}"/>
+    <hyperlink ref="A45" r:id="rId116" xr:uid="{45C56D22-ED62-4D45-8530-931F9FB5E957}"/>
+    <hyperlink ref="A44" r:id="rId117" xr:uid="{E5C2336B-B912-45BC-9628-94A796740BBF}"/>
+    <hyperlink ref="A43" r:id="rId118" xr:uid="{BBC75677-5ADC-4FCE-8D41-3DD018AC979A}"/>
+    <hyperlink ref="A42" r:id="rId119" xr:uid="{8E5801BA-3A5D-4BBB-B2CA-B68937CE1E19}"/>
+    <hyperlink ref="A41" r:id="rId120" xr:uid="{FDF2E6CE-4942-402F-944B-E9ECCB822EFC}"/>
+    <hyperlink ref="A40" r:id="rId121" xr:uid="{6408C319-8D4A-4C0A-8945-BD935F10EC67}"/>
+    <hyperlink ref="A39" r:id="rId122" xr:uid="{A7CDE216-C18A-4502-80F1-79FEA82E8FC0}"/>
+    <hyperlink ref="A38" r:id="rId123" xr:uid="{5A6C9DFF-C092-4EDB-B92E-9CA9876FD85F}"/>
+    <hyperlink ref="A37" r:id="rId124" xr:uid="{16FE51F7-D1EA-4A5B-AE06-B238AC3AADAF}"/>
+    <hyperlink ref="A36" r:id="rId125" xr:uid="{D17939EA-7075-4032-BBF7-10E36335D593}"/>
+    <hyperlink ref="A35" r:id="rId126" xr:uid="{16A163AC-BB60-4655-B0EE-C53E2391BD46}"/>
+    <hyperlink ref="A34" r:id="rId127" xr:uid="{5085B272-249D-44B1-8122-A610C283680E}"/>
+    <hyperlink ref="A33" r:id="rId128" xr:uid="{4B17809F-6E02-4B9B-B2B0-82F31623929D}"/>
+    <hyperlink ref="A32" r:id="rId129" xr:uid="{839EFA4A-D069-4E11-8FE8-46C7DE55D661}"/>
+    <hyperlink ref="A31" r:id="rId130" xr:uid="{33C29AF6-BCEF-4155-AD3D-BA95CEF37D75}"/>
+    <hyperlink ref="A30" r:id="rId131" xr:uid="{57DEAB2B-6691-45E5-AB9A-1B1F6186F68B}"/>
+    <hyperlink ref="A29" r:id="rId132" xr:uid="{ECBC4EEE-D70E-45E5-B8B8-23F74E5F4C6D}"/>
+    <hyperlink ref="A28" r:id="rId133" xr:uid="{EEF45C1F-C616-443C-B8E9-0CE286C1D36F}"/>
+    <hyperlink ref="A27" r:id="rId134" xr:uid="{DA9D18C6-ABCB-4263-9E4E-213FDDADA9EC}"/>
+    <hyperlink ref="A26" r:id="rId135" xr:uid="{6FD155D7-C180-4B19-8324-616F54DE0229}"/>
+    <hyperlink ref="A25" r:id="rId136" xr:uid="{396F1C48-724F-4261-92C6-E8CFE9BFAD1C}"/>
+    <hyperlink ref="A24" r:id="rId137" xr:uid="{67029E1C-E4D9-4DF2-B0B6-DED7F2B51D3D}"/>
+    <hyperlink ref="A23" r:id="rId138" xr:uid="{31228E63-6BD0-4168-B695-206FB4839601}"/>
+    <hyperlink ref="A22" r:id="rId139" xr:uid="{4EBF73C9-2DCD-46C9-8B85-F0D0A6455C1F}"/>
+    <hyperlink ref="A21" r:id="rId140" xr:uid="{F8DBF631-5914-48D2-82FE-60FB8EA5DBF2}"/>
+    <hyperlink ref="A20" r:id="rId141" xr:uid="{CBA7A981-80F3-4B51-A7BF-B80506639C4A}"/>
+    <hyperlink ref="A19" r:id="rId142" xr:uid="{624CDCAA-3BD3-4C56-9F58-1EFB7B531C26}"/>
+    <hyperlink ref="A18" r:id="rId143" xr:uid="{4BEECC4B-AAD1-4348-85A3-B1F1BB461EEA}"/>
+    <hyperlink ref="A17" r:id="rId144" xr:uid="{26C75F9A-A191-4D06-9BD3-0E73420E0E33}"/>
+    <hyperlink ref="A16" r:id="rId145" xr:uid="{31ABC24F-60CC-4342-95AE-6D1184CB80CB}"/>
+    <hyperlink ref="A15" r:id="rId146" xr:uid="{023B1E97-AD63-49D5-9586-7D2E322399C9}"/>
+    <hyperlink ref="A14" r:id="rId147" xr:uid="{E8550EE0-236A-479F-BF45-1CDC61A3175B}"/>
+    <hyperlink ref="A13" r:id="rId148" xr:uid="{360E969E-4E88-427F-9F61-C4589A58EFE8}"/>
+    <hyperlink ref="A12" r:id="rId149" xr:uid="{0D53E1D1-5873-4E0D-86FB-811751E3C5B3}"/>
+    <hyperlink ref="A11" r:id="rId150" xr:uid="{EAA2181A-D010-466D-8703-6BB0B5F13345}"/>
+    <hyperlink ref="A10" r:id="rId151" xr:uid="{E26494F5-3E34-4068-A279-17A6748142D5}"/>
+    <hyperlink ref="A9" r:id="rId152" xr:uid="{E148EF5C-4300-4F8A-AE64-BA64238D8C34}"/>
+    <hyperlink ref="A8" r:id="rId153" xr:uid="{1665DA95-4E8D-4581-A265-88C94527C10C}"/>
+    <hyperlink ref="A7" r:id="rId154" xr:uid="{28FF3E16-6DFB-4D15-BA3B-665E0A2A052E}"/>
+    <hyperlink ref="A6" r:id="rId155" xr:uid="{4D6EE1AD-AFF1-48A5-95A0-04928B3096C1}"/>
+    <hyperlink ref="A5" r:id="rId156" xr:uid="{F583B9BE-90BA-4C71-BB49-2F3AFAAF7155}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId157"/>

--- a/helpful/VisioTemplates_Stats.xlsx
+++ b/helpful/VisioTemplates_Stats.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E1C9B3-45AA-4D67-A86A-06CBEA7AE6F5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{908FB860-2BA1-47A0-8F50-36ECF9E1E258}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10546" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1832,7 +1832,7 @@
   <dimension ref="A1:Q157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6928,162 +6928,162 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{E96C683E-B503-4969-8739-556F94CAC69F}"/>
-    <hyperlink ref="A3" r:id="rId2" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/ACTUAL_FINISHDATES_GANTTCHART_M.VSTX" xr:uid="{961D2BB5-9680-4411-B69D-5F602D54A649}"/>
-    <hyperlink ref="A4" r:id="rId3" xr:uid="{84102B40-ECDF-4DE9-AE88-FE2B7D356321}"/>
-    <hyperlink ref="A157" r:id="rId4" xr:uid="{67F3E2A2-ABAB-47EB-B6E0-B134BBD3FBBB}"/>
-    <hyperlink ref="A156" r:id="rId5" xr:uid="{F71203A9-901E-4084-BCA9-9BD536C17A25}"/>
-    <hyperlink ref="A155" r:id="rId6" xr:uid="{94A4091E-01BF-4A73-B798-0EA4E42D2AEA}"/>
-    <hyperlink ref="A154" r:id="rId7" xr:uid="{7ECD5417-F2DE-4014-8749-DCA068FB24DF}"/>
-    <hyperlink ref="A153" r:id="rId8" xr:uid="{3F370577-B676-48D6-9513-ACD9CB05C1BC}"/>
-    <hyperlink ref="A152" r:id="rId9" xr:uid="{62803163-678B-4B94-8979-C346404C4202}"/>
-    <hyperlink ref="A151" r:id="rId10" xr:uid="{6043FE91-DBFC-403E-9E4B-4CAE50DEC63E}"/>
-    <hyperlink ref="A150" r:id="rId11" xr:uid="{8FAAFEFC-C7AF-41CF-A473-1D1E8BF00465}"/>
-    <hyperlink ref="A149" r:id="rId12" xr:uid="{34F00F33-FF40-41D8-9209-B3013F0B4B51}"/>
-    <hyperlink ref="A148" r:id="rId13" xr:uid="{A8D8D57A-C542-4477-B857-4130CCBF2F41}"/>
-    <hyperlink ref="A147" r:id="rId14" xr:uid="{D948F96A-6502-4129-A2D1-4AA700667268}"/>
-    <hyperlink ref="A146" r:id="rId15" xr:uid="{3CFA9DB3-50D6-4AF5-B739-249A0F104C3B}"/>
-    <hyperlink ref="A145" r:id="rId16" xr:uid="{512FFBB8-1733-40D2-B7E2-7C3ED9231EC5}"/>
-    <hyperlink ref="A144" r:id="rId17" xr:uid="{BBB53011-E19F-40AA-BC9C-3E9F7D3917F6}"/>
-    <hyperlink ref="A143" r:id="rId18" xr:uid="{0126013D-A58E-4107-A40D-921E2BAA5BF2}"/>
-    <hyperlink ref="A142" r:id="rId19" xr:uid="{A733F893-04ED-444A-AE71-1A1E2BCA3C80}"/>
-    <hyperlink ref="A141" r:id="rId20" xr:uid="{A86C56C5-BBF3-4CB1-A8C5-EFA8BC624495}"/>
-    <hyperlink ref="A140" r:id="rId21" xr:uid="{1D024248-EF36-48E0-97F7-CAB112B5645F}"/>
-    <hyperlink ref="A139" r:id="rId22" xr:uid="{018A28FA-5A87-41FE-87DE-C79A8AABDCD0}"/>
-    <hyperlink ref="A138" r:id="rId23" xr:uid="{DC0F2AF8-9A4A-4A3E-A3C5-FAA54089AC8E}"/>
-    <hyperlink ref="A137" r:id="rId24" xr:uid="{B63BF417-C8B9-43F2-A48F-D5C63E719D80}"/>
-    <hyperlink ref="A136" r:id="rId25" xr:uid="{FB735693-E218-4C57-ABBB-21A64DC84043}"/>
-    <hyperlink ref="A135" r:id="rId26" xr:uid="{876C9555-1825-4DD3-A866-01F81A051CDE}"/>
-    <hyperlink ref="A134" r:id="rId27" xr:uid="{13122E35-B6EF-4D9B-8E0E-CA6388840F89}"/>
-    <hyperlink ref="A133" r:id="rId28" xr:uid="{C47C8099-C020-4259-9E85-83261934C0E3}"/>
-    <hyperlink ref="A132" r:id="rId29" xr:uid="{8353C8C2-BC57-4408-9A5D-7A6C5593CC10}"/>
-    <hyperlink ref="A131" r:id="rId30" xr:uid="{44C29E09-957E-4374-B21C-21A12429C20F}"/>
-    <hyperlink ref="A130" r:id="rId31" xr:uid="{B8A1ACA6-A1B4-40D4-806A-9CB058BDE34B}"/>
-    <hyperlink ref="A129" r:id="rId32" xr:uid="{A6EF404C-5B4A-4237-89D6-DA4999099953}"/>
-    <hyperlink ref="A128" r:id="rId33" xr:uid="{5940A4B5-5EB2-42F9-B460-93729F0378F2}"/>
-    <hyperlink ref="A127" r:id="rId34" xr:uid="{AEDE7845-46EC-4FC7-90FF-7EE7A82F32F6}"/>
-    <hyperlink ref="A126" r:id="rId35" xr:uid="{6B933CD0-ABE7-4AAE-ADE2-121EF2E50985}"/>
-    <hyperlink ref="A125" r:id="rId36" xr:uid="{EE494F00-9752-4486-B0C8-543770579DCB}"/>
-    <hyperlink ref="A124" r:id="rId37" xr:uid="{E28069AD-284B-4907-805A-DADF2FE18E87}"/>
-    <hyperlink ref="A123" r:id="rId38" xr:uid="{F1DA669A-E5EE-4EF4-8041-C52D34B455E3}"/>
-    <hyperlink ref="A122" r:id="rId39" xr:uid="{631016DD-E68E-4598-B663-22AB50AAFE77}"/>
-    <hyperlink ref="A121" r:id="rId40" xr:uid="{83636BF9-3DAE-4DDA-B8AB-8B1DDAADB1F8}"/>
-    <hyperlink ref="A120" r:id="rId41" xr:uid="{DC989A4F-78D6-4FFC-A095-151085223571}"/>
-    <hyperlink ref="A119" r:id="rId42" xr:uid="{2B599E00-8EBE-4F26-8311-9D58EEB53872}"/>
-    <hyperlink ref="A118" r:id="rId43" xr:uid="{11DC71F5-1F72-403E-B7D6-E6A93ED8ABC3}"/>
-    <hyperlink ref="A117" r:id="rId44" xr:uid="{E0938645-C604-4E7A-9AFA-783EB3AC97E3}"/>
-    <hyperlink ref="A116" r:id="rId45" xr:uid="{8B88C953-446E-4CC3-8589-2D41B03364A0}"/>
-    <hyperlink ref="A115" r:id="rId46" xr:uid="{200E838D-F8A4-41CB-A580-AFE97CA48859}"/>
-    <hyperlink ref="A114" r:id="rId47" xr:uid="{B607BEF5-EBAC-4632-A639-304CC11EBD26}"/>
-    <hyperlink ref="A113" r:id="rId48" xr:uid="{6999D4BD-9472-4234-80C4-91C8462847D3}"/>
-    <hyperlink ref="A112" r:id="rId49" xr:uid="{5476EF90-84CE-4AA7-A43D-E9E7A0DE1710}"/>
-    <hyperlink ref="A111" r:id="rId50" xr:uid="{292BE876-5B30-48EE-8F48-3871BAB005E0}"/>
-    <hyperlink ref="A110" r:id="rId51" xr:uid="{74D4FDA3-B040-4252-95A1-FC941A6CE935}"/>
-    <hyperlink ref="A109" r:id="rId52" xr:uid="{7984C13D-B908-4102-992B-204BA58C26F8}"/>
-    <hyperlink ref="A108" r:id="rId53" xr:uid="{A55CE6EA-2769-4DF4-8BD1-A38E76B4C6C0}"/>
-    <hyperlink ref="A107" r:id="rId54" xr:uid="{254D1092-5B27-4A41-976E-2F2C8864ED1F}"/>
-    <hyperlink ref="A106" r:id="rId55" xr:uid="{5A15CBBC-CABD-43D2-A94B-6427C8798416}"/>
-    <hyperlink ref="A105" r:id="rId56" xr:uid="{616E886F-293B-4B7B-BD5B-78D8DAC135F3}"/>
-    <hyperlink ref="A104" r:id="rId57" xr:uid="{8D8E6CA3-F121-4FC2-BE3A-EB58A13045ED}"/>
-    <hyperlink ref="A103" r:id="rId58" xr:uid="{CE0EE683-B718-48DE-8D7C-F24C7726D7EC}"/>
-    <hyperlink ref="A102" r:id="rId59" xr:uid="{9A31257C-AB0A-45BD-861F-4B0C1D86B5D0}"/>
-    <hyperlink ref="A101" r:id="rId60" xr:uid="{F711B332-0BF2-4DD6-AA47-761EBB64E154}"/>
-    <hyperlink ref="A100" r:id="rId61" xr:uid="{E687A849-FFEC-41CE-A560-9D0CC688410E}"/>
-    <hyperlink ref="A99" r:id="rId62" xr:uid="{D3702FF4-4BAA-4006-A9BD-08BC2E3A5C5B}"/>
-    <hyperlink ref="A98" r:id="rId63" xr:uid="{6B1F1D5C-DA80-4E95-BB55-FE5C5CDE11E8}"/>
-    <hyperlink ref="A97" r:id="rId64" xr:uid="{6C8A32A9-6883-435B-B989-509F41378884}"/>
-    <hyperlink ref="A96" r:id="rId65" xr:uid="{232DA7A0-0ABC-46D7-8EE9-E34D769BD5B6}"/>
-    <hyperlink ref="A95" r:id="rId66" xr:uid="{086652A3-2FCA-4161-87B6-85F8B7D7E4B5}"/>
-    <hyperlink ref="A94" r:id="rId67" xr:uid="{E2C04223-7C7C-4636-9843-47FC834E1A4D}"/>
-    <hyperlink ref="A93" r:id="rId68" xr:uid="{62479076-7E99-4774-AB5B-1979CA1FDBB3}"/>
-    <hyperlink ref="A92" r:id="rId69" xr:uid="{BA419263-F5BB-4AA4-82E9-6B9A20512A58}"/>
-    <hyperlink ref="A91" r:id="rId70" xr:uid="{9AC1E0FD-E3F2-4945-9D60-F3B59403423F}"/>
-    <hyperlink ref="A90" r:id="rId71" xr:uid="{B34B86EE-37FD-42B2-892B-8A555D5C4AEC}"/>
-    <hyperlink ref="A89" r:id="rId72" xr:uid="{9DCC01E4-D5BF-42B1-A778-298E2F5504A2}"/>
-    <hyperlink ref="A88" r:id="rId73" xr:uid="{D42ACBDA-0A31-4049-9CB9-775F42F4C5CE}"/>
-    <hyperlink ref="A87" r:id="rId74" xr:uid="{B94D2ED4-E708-4AA1-A00F-F274B717D913}"/>
-    <hyperlink ref="A86" r:id="rId75" xr:uid="{8BDE6CB3-DE8D-4D62-B15A-24AE11E5C238}"/>
-    <hyperlink ref="A85" r:id="rId76" xr:uid="{F9200980-2D6F-4197-983C-AEEF37AF2946}"/>
-    <hyperlink ref="A84" r:id="rId77" xr:uid="{F964D9EC-44AE-4BE2-9103-1E2F10CF655D}"/>
-    <hyperlink ref="A83" r:id="rId78" xr:uid="{32A59004-2F29-4FB0-97F8-605D7F5A3883}"/>
-    <hyperlink ref="A82" r:id="rId79" xr:uid="{F768453B-BEF7-4D7F-8BFB-D58A03FEC10D}"/>
-    <hyperlink ref="A81" r:id="rId80" xr:uid="{AEBB523B-9E31-4FAB-B048-0A5686347FFC}"/>
-    <hyperlink ref="A80" r:id="rId81" xr:uid="{3B237AC2-9F81-4E9A-AEC0-DF60FE95B467}"/>
-    <hyperlink ref="A79" r:id="rId82" xr:uid="{3251A4EB-6FB8-4A2C-94D3-026117168B2C}"/>
-    <hyperlink ref="A78" r:id="rId83" xr:uid="{DB3F72DA-8AAD-4790-BA02-47E2A2EC00BF}"/>
-    <hyperlink ref="A77" r:id="rId84" xr:uid="{6263799D-EB4F-49B8-B1D5-948CCD149BB4}"/>
-    <hyperlink ref="A76" r:id="rId85" xr:uid="{1262146A-AF1E-45CF-9DE5-2B5A3E27421A}"/>
-    <hyperlink ref="A75" r:id="rId86" xr:uid="{BFAD318D-3190-4364-BA36-50AE38120E45}"/>
-    <hyperlink ref="A74" r:id="rId87" xr:uid="{A524F749-A97D-4384-A55E-5625903F0425}"/>
-    <hyperlink ref="A73" r:id="rId88" xr:uid="{ABC9C551-3E2E-4DED-B9EB-5C2329E7C7B0}"/>
-    <hyperlink ref="A72" r:id="rId89" xr:uid="{8783AFD0-F9EF-43FF-877B-14EB2594F780}"/>
-    <hyperlink ref="A71" r:id="rId90" xr:uid="{685F7FED-2D89-42A1-8431-2584A691B38F}"/>
-    <hyperlink ref="A70" r:id="rId91" xr:uid="{3EDB5B9D-2719-409E-8A39-C7AA39D1481F}"/>
-    <hyperlink ref="A69" r:id="rId92" xr:uid="{A2119EE1-933D-40DF-840A-2CC07A1CAAF3}"/>
-    <hyperlink ref="A68" r:id="rId93" xr:uid="{EC832652-9B12-4106-85C6-85F1139DC894}"/>
-    <hyperlink ref="A67" r:id="rId94" xr:uid="{4046D22A-4F42-4DFB-956E-88D51453FBB1}"/>
-    <hyperlink ref="A66" r:id="rId95" xr:uid="{3007DE6E-C1E1-4BD9-B5B3-B22DB40BB564}"/>
-    <hyperlink ref="A65" r:id="rId96" xr:uid="{541B2B56-E41C-4570-BC6C-50C377CF4AB5}"/>
-    <hyperlink ref="A64" r:id="rId97" xr:uid="{995E7008-F6B4-49E9-BA73-727EB78BAD3D}"/>
-    <hyperlink ref="A63" r:id="rId98" xr:uid="{0ED5327E-5FB6-4FF5-A5C8-A1F75BCFF6E7}"/>
-    <hyperlink ref="A62" r:id="rId99" xr:uid="{5A1D7BC0-B6E5-458E-A702-0BA716983054}"/>
-    <hyperlink ref="A61" r:id="rId100" xr:uid="{40490289-61DD-4107-9834-593EAC48FB77}"/>
-    <hyperlink ref="A60" r:id="rId101" xr:uid="{96AEE566-1EC7-4EDE-9B19-CDA72EBE728B}"/>
-    <hyperlink ref="A59" r:id="rId102" xr:uid="{36978FE6-9052-45A8-B37D-C937B28B0E1C}"/>
-    <hyperlink ref="A58" r:id="rId103" xr:uid="{064F350B-5ECE-40EF-8481-7F0DE57E65F5}"/>
-    <hyperlink ref="A57" r:id="rId104" xr:uid="{C1F79028-0804-4969-9241-F53CFE3807AB}"/>
-    <hyperlink ref="A56" r:id="rId105" xr:uid="{BC5F67FD-1F2B-4A0C-B3B5-AF76575669D4}"/>
-    <hyperlink ref="A55" r:id="rId106" xr:uid="{D4BD938F-3C00-4DEA-9632-9C34AE3C0712}"/>
-    <hyperlink ref="A54" r:id="rId107" xr:uid="{BB18CB29-A901-41E2-80BC-0EE0F0A883AC}"/>
-    <hyperlink ref="A53" r:id="rId108" xr:uid="{EB25A9EE-B343-4627-B202-38D4685F81FA}"/>
-    <hyperlink ref="A52" r:id="rId109" xr:uid="{15FAC4F1-A8E3-4583-AD62-9B1426FF92C3}"/>
-    <hyperlink ref="A51" r:id="rId110" xr:uid="{276F6FA9-A2D0-4FBF-8B80-DC26764A653A}"/>
-    <hyperlink ref="A50" r:id="rId111" xr:uid="{5364851C-F8A8-49CE-967C-5DEF7A378CC1}"/>
-    <hyperlink ref="A49" r:id="rId112" xr:uid="{FE73D752-E0BA-42DD-8568-495104EDF544}"/>
-    <hyperlink ref="A48" r:id="rId113" xr:uid="{183DF729-155D-40F2-874A-82B18914F6F1}"/>
-    <hyperlink ref="A47" r:id="rId114" xr:uid="{F6737AC2-76E8-451B-95D1-5D5699AFCF2F}"/>
-    <hyperlink ref="A46" r:id="rId115" xr:uid="{A9001197-D6DC-44D5-9CD2-61DA8D830D51}"/>
-    <hyperlink ref="A45" r:id="rId116" xr:uid="{45C56D22-ED62-4D45-8530-931F9FB5E957}"/>
-    <hyperlink ref="A44" r:id="rId117" xr:uid="{E5C2336B-B912-45BC-9628-94A796740BBF}"/>
-    <hyperlink ref="A43" r:id="rId118" xr:uid="{BBC75677-5ADC-4FCE-8D41-3DD018AC979A}"/>
-    <hyperlink ref="A42" r:id="rId119" xr:uid="{8E5801BA-3A5D-4BBB-B2CA-B68937CE1E19}"/>
-    <hyperlink ref="A41" r:id="rId120" xr:uid="{FDF2E6CE-4942-402F-944B-E9ECCB822EFC}"/>
-    <hyperlink ref="A40" r:id="rId121" xr:uid="{6408C319-8D4A-4C0A-8945-BD935F10EC67}"/>
-    <hyperlink ref="A39" r:id="rId122" xr:uid="{A7CDE216-C18A-4502-80F1-79FEA82E8FC0}"/>
-    <hyperlink ref="A38" r:id="rId123" xr:uid="{5A6C9DFF-C092-4EDB-B92E-9CA9876FD85F}"/>
-    <hyperlink ref="A37" r:id="rId124" xr:uid="{16FE51F7-D1EA-4A5B-AE06-B238AC3AADAF}"/>
-    <hyperlink ref="A36" r:id="rId125" xr:uid="{D17939EA-7075-4032-BBF7-10E36335D593}"/>
-    <hyperlink ref="A35" r:id="rId126" xr:uid="{16A163AC-BB60-4655-B0EE-C53E2391BD46}"/>
-    <hyperlink ref="A34" r:id="rId127" xr:uid="{5085B272-249D-44B1-8122-A610C283680E}"/>
-    <hyperlink ref="A33" r:id="rId128" xr:uid="{4B17809F-6E02-4B9B-B2B0-82F31623929D}"/>
-    <hyperlink ref="A32" r:id="rId129" xr:uid="{839EFA4A-D069-4E11-8FE8-46C7DE55D661}"/>
-    <hyperlink ref="A31" r:id="rId130" xr:uid="{33C29AF6-BCEF-4155-AD3D-BA95CEF37D75}"/>
-    <hyperlink ref="A30" r:id="rId131" xr:uid="{57DEAB2B-6691-45E5-AB9A-1B1F6186F68B}"/>
-    <hyperlink ref="A29" r:id="rId132" xr:uid="{ECBC4EEE-D70E-45E5-B8B8-23F74E5F4C6D}"/>
-    <hyperlink ref="A28" r:id="rId133" xr:uid="{EEF45C1F-C616-443C-B8E9-0CE286C1D36F}"/>
-    <hyperlink ref="A27" r:id="rId134" xr:uid="{DA9D18C6-ABCB-4263-9E4E-213FDDADA9EC}"/>
-    <hyperlink ref="A26" r:id="rId135" xr:uid="{6FD155D7-C180-4B19-8324-616F54DE0229}"/>
-    <hyperlink ref="A25" r:id="rId136" xr:uid="{396F1C48-724F-4261-92C6-E8CFE9BFAD1C}"/>
-    <hyperlink ref="A24" r:id="rId137" xr:uid="{67029E1C-E4D9-4DF2-B0B6-DED7F2B51D3D}"/>
-    <hyperlink ref="A23" r:id="rId138" xr:uid="{31228E63-6BD0-4168-B695-206FB4839601}"/>
-    <hyperlink ref="A22" r:id="rId139" xr:uid="{4EBF73C9-2DCD-46C9-8B85-F0D0A6455C1F}"/>
-    <hyperlink ref="A21" r:id="rId140" xr:uid="{F8DBF631-5914-48D2-82FE-60FB8EA5DBF2}"/>
-    <hyperlink ref="A20" r:id="rId141" xr:uid="{CBA7A981-80F3-4B51-A7BF-B80506639C4A}"/>
-    <hyperlink ref="A19" r:id="rId142" xr:uid="{624CDCAA-3BD3-4C56-9F58-1EFB7B531C26}"/>
-    <hyperlink ref="A18" r:id="rId143" xr:uid="{4BEECC4B-AAD1-4348-85A3-B1F1BB461EEA}"/>
-    <hyperlink ref="A17" r:id="rId144" xr:uid="{26C75F9A-A191-4D06-9BD3-0E73420E0E33}"/>
-    <hyperlink ref="A16" r:id="rId145" xr:uid="{31ABC24F-60CC-4342-95AE-6D1184CB80CB}"/>
-    <hyperlink ref="A15" r:id="rId146" xr:uid="{023B1E97-AD63-49D5-9586-7D2E322399C9}"/>
-    <hyperlink ref="A14" r:id="rId147" xr:uid="{E8550EE0-236A-479F-BF45-1CDC61A3175B}"/>
-    <hyperlink ref="A13" r:id="rId148" xr:uid="{360E969E-4E88-427F-9F61-C4589A58EFE8}"/>
-    <hyperlink ref="A12" r:id="rId149" xr:uid="{0D53E1D1-5873-4E0D-86FB-811751E3C5B3}"/>
-    <hyperlink ref="A11" r:id="rId150" xr:uid="{EAA2181A-D010-466D-8703-6BB0B5F13345}"/>
-    <hyperlink ref="A10" r:id="rId151" xr:uid="{E26494F5-3E34-4068-A279-17A6748142D5}"/>
-    <hyperlink ref="A9" r:id="rId152" xr:uid="{E148EF5C-4300-4F8A-AE64-BA64238D8C34}"/>
-    <hyperlink ref="A8" r:id="rId153" xr:uid="{1665DA95-4E8D-4581-A265-88C94527C10C}"/>
-    <hyperlink ref="A7" r:id="rId154" xr:uid="{28FF3E16-6DFB-4D15-BA3B-665E0A2A052E}"/>
-    <hyperlink ref="A6" r:id="rId155" xr:uid="{4D6EE1AD-AFF1-48A5-95A0-04928B3096C1}"/>
-    <hyperlink ref="A5" r:id="rId156" xr:uid="{F583B9BE-90BA-4C71-BB49-2F3AFAAF7155}"/>
+    <hyperlink ref="A2" r:id="rId1" display="ACTDIR_" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A3" r:id="rId2" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/ACTUAL_FINISHDATES_GANTTCHART_M.VSTX" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A4" r:id="rId3" display="c:\Program Files (x86)\Microsoft Office\root\Office16\Visio Content\1049\ASSOCIATIONS_UML_CLASS_M.vstx" xr:uid="{89D2DEC5-3697-4F69-863E-1125A8D98D0D}"/>
+    <hyperlink ref="A5" r:id="rId4" display="c:\Program Files (x86)\Microsoft Office\root\Office16\Visio Content\1049\AUDIT_M.vstx" xr:uid="{7B19601E-0290-49EB-9F39-2085FC1A68EF}"/>
+    <hyperlink ref="A6" r:id="rId5" location="AUDIT_SEVERAL_OUTCOMES_M" display="AUDIT_SEVERAL_OUTCOMES_M.vstx - AUDIT_SEVERAL_OUTCOMES_M" xr:uid="{CD3913EC-9E92-4211-A5A6-6BA5B5F4EF12}"/>
+    <hyperlink ref="A7" r:id="rId6" location="AUDIT_SUBPROCESS_M" display="AUDIT_SUBPROCESS_M.vstx - AUDIT_SUBPROCESS_M" xr:uid="{25B22561-8159-4082-82B8-5FB53C3E32B3}"/>
+    <hyperlink ref="A8" r:id="rId7" location="BASFLO_M" xr:uid="{5CDDCD25-43C5-4F54-B5C4-5B177B8E2485}"/>
+    <hyperlink ref="A9" r:id="rId8" location="BASICCIRCUIT_DIAGRAM_M" display="BASICCIRCUIT_DIAGRAM_M.vstx - BASICCIRCUIT_DIAGRAM_M" xr:uid="{D05FB118-A728-4AB5-95DE-62C204380876}"/>
+    <hyperlink ref="A10" r:id="rId9" location="BASICD_M" display="BASICD_M.vstx - BASICD_M" xr:uid="{85E8E744-B177-476C-9D13-298209681BAC}"/>
+    <hyperlink ref="A11" r:id="rId10" location="BASICELECTRICAL_DIAGRAM_M" display="BASICELECTRICAL_DIAGRAM_M.vstx - BASICELECTRICAL_DIAGRAM_M" xr:uid="{0D32A0FF-0BCD-4BC5-B564-8B009EAD2276}"/>
+    <hyperlink ref="A12" r:id="rId11" location="BASIC_AUDITDIAGRAM_M" display="BASIC_AUDITDIAGRAM_M.vstx - BASIC_AUDITDIAGRAM_M" xr:uid="{DDCCF4E5-D4A3-46D2-AC83-EF932BBDADAE}"/>
+    <hyperlink ref="A13" r:id="rId12" location="BASIC_GANTTCHART_M" display="BASIC_GANTTCHART_M.vstx - BASIC_GANTTCHART_M" xr:uid="{9239069A-33F3-4887-A1D4-41C84A941D06}"/>
+    <hyperlink ref="A14" r:id="rId13" location="BASIC_HOME_NETWORK_M" display="BASIC_HOME_NETWORK_M.vstx - BASIC_HOME_NETWORK_M" xr:uid="{9324EBE6-F802-4B94-BFDC-086687360DD2}"/>
+    <hyperlink ref="A15" r:id="rId14" location="BASIC_UMLSEQUENCE_M" display="BASIC_UMLSEQUENCE_M.vstx - BASIC_UMLSEQUENCE_M" xr:uid="{658FBC71-1809-4E99-A59C-6D6869FFC75D}"/>
+    <hyperlink ref="A16" r:id="rId15" location="BF_DATAVISUALIZER_M" display="BF_DATAVISUALIZER_M.vstx - BF_DATAVISUALIZER_M" xr:uid="{2EAACD63-7075-491E-B945-671A98730A98}"/>
+    <hyperlink ref="A17" r:id="rId16" location="BLOCKP_M" display="BLOCKP_M.vstx - BLOCKP_M" xr:uid="{51553BBB-8F72-4BA0-8284-C8C50DB9E0B4}"/>
+    <hyperlink ref="A18" r:id="rId17" location="BLOCK_M" display="BLOCK_M.vstx - BLOCK_M" xr:uid="{376485DA-895D-4A58-85D6-DE64E46AFA4C}"/>
+    <hyperlink ref="A19" r:id="rId18" location="BPMN_ADDRESS_CHANGE_PROCESS_M" display="BPMN_ADDRESS_CHANGE_PROCESS_M.vstx - BPMN_ADDRESS_CHANGE_PROCESS_M" xr:uid="{AAFC7813-B566-499E-9352-E57B893714D1}"/>
+    <hyperlink ref="A20" r:id="rId19" location="BPMN_M" display="BPMN_M.vstx - BPMN_M" xr:uid="{5754906B-0A40-4521-9E25-37CC3CDB47FE}"/>
+    <hyperlink ref="A21" r:id="rId20" location="BPMN_PROCESS_GATEWAY_M" display="BPMN_PROCESS_GATEWAY_M.vstx - BPMN_PROCESS_GATEWAY_M" xr:uid="{EC180276-7A30-48A5-A465-EE6E5C042E86}"/>
+    <hyperlink ref="A22" r:id="rId21" location="BPMN_PROCESS_MULTIPLE_ROLES_M" display="BPMN_PROCESS_MULTIPLE_ROLES_M.vstx - BPMN_PROCESS_MULTIPLE_ROLES_M" xr:uid="{18F078B0-326E-46D8-AE5F-19499C3F5C49}"/>
+    <hyperlink ref="A23" r:id="rId22" location="BSTORM_M" display="BSTORM_M.vstx - BSTORM_M" xr:uid="{588677CB-A2E7-4F81-B3C0-9DF022E79E03}"/>
+    <hyperlink ref="A24" r:id="rId23" location="CALNDR_M" display="CALNDR_M.vstx - CALNDR_M" xr:uid="{2CC6FAA8-DFE6-404E-A9B1-15317B1BDA40}"/>
+    <hyperlink ref="A25" r:id="rId24" location="CAUSEF_M" display="CAUSEF_M.vstx - CAUSEF_M" xr:uid="{6428CFE6-CC2D-4722-8D51-0DA213CC77B0}"/>
+    <hyperlink ref="A26" r:id="rId25" location="CEILPL_M" display="CEILPL_M.vstx - CEILPL_M" xr:uid="{B9D865EE-F20C-4228-A790-3BA183B2C8E6}"/>
+    <hyperlink ref="A27" r:id="rId26" location="CFF_DATAVISUALIZER_M" display="CFF_DATAVISUALIZER_M.vstx - CFF_DATAVISUALIZER_M" xr:uid="{44A44B3F-4F7C-4396-9212-697941744BE9}"/>
+    <hyperlink ref="A28" r:id="rId27" location="CFF_HORIZONTAL_M" display="CFF_HORIZONTAL_M.vstx - CFF_HORIZONTAL_M" xr:uid="{34C1D70A-4465-43B3-B9BC-6AE4E54E7146}"/>
+    <hyperlink ref="A29" r:id="rId28" location="CFF_SHAREDPROCESS_M" display="CFF_SHAREDPROCESS_M.vstx - CFF_SHAREDPROCESS_M" xr:uid="{01B36EC8-826B-4526-8286-B079F85568D1}"/>
+    <hyperlink ref="A30" r:id="rId29" location="CFF_VERTICAL_M" display="CFF_VERTICAL_M.vstx - CFF_VERTICAL_M" xr:uid="{BC1F26F1-8E22-40F8-B89A-080B31BA2D21}"/>
+    <hyperlink ref="A31" r:id="rId30" location="CHART_M" display="CHART_M.vstx - CHART_M" xr:uid="{2CC9DCDA-932A-4006-AC60-4AF35E7F8044}"/>
+    <hyperlink ref="A32" r:id="rId31" location="COMOLE_M" display="COMOLE_M.vstx - COMOLE_M" xr:uid="{EA972DE2-A614-4D68-A7D2-9C4914D251DF}"/>
+    <hyperlink ref="A33" r:id="rId32" location="CONLOG_M" display="CONLOG_M.vstx - CONLOG_M" xr:uid="{02CAA6A4-D6E1-4F92-9BCF-6CF416ADB9C2}"/>
+    <hyperlink ref="A34" r:id="rId33" location="DATFLO_M" display="DATFLO_M.vstx - DATFLO_M" xr:uid="{0E2EF032-F9B0-45E6-85E1-7896C840ABEC}"/>
+    <hyperlink ref="A35" r:id="rId34" location="DATMOD_M" display="DATMOD_M.vstx - DATMOD_M" xr:uid="{124D6672-9B1E-418D-80FA-0D8FBFD77092}"/>
+    <hyperlink ref="A36" r:id="rId35" location="DBCHEN_M" display="DBCHEN_M.vstx - DBCHEN_M" xr:uid="{775361C3-02D5-404B-9E6C-A09C3A3ED30F}"/>
+    <hyperlink ref="A37" r:id="rId36" location="DBCROW_M" display="DBCROW_M.vstx - DBCROW_M" xr:uid="{3DC4EB53-7131-405B-BEF1-7C08E6E35507}"/>
+    <hyperlink ref="A38" r:id="rId37" location="DBIDEF1X_M" display="DBIDEF1X_M.vstx - DBIDEF1X_M" xr:uid="{D47D302A-ACC2-4ACC-9B3E-3DFBD9F994DC}"/>
+    <hyperlink ref="A39" r:id="rId38" location="DBMODL_M" display="DBMODL_M.vstx - DBMODL_M" xr:uid="{488EF072-27AF-43AA-8A7F-80CF9684F301}"/>
+    <hyperlink ref="A40" r:id="rId39" location="DBUML_M" display="DBUML_M.vstx - DBUML_M" xr:uid="{2F1B664A-CBA2-4BCC-87CD-C1389D351FB9}"/>
+    <hyperlink ref="A41" r:id="rId40" location="DEPTORGCHART_M" display="DEPTORGCHART_M.vstx - DEPTORGCHART_M" xr:uid="{1CF0530E-A85D-441D-922D-92A0E733A712}"/>
+    <hyperlink ref="A42" r:id="rId41" location="DOCUMENT_APPROVAL_WORKFLOW_M" display="DOCUMENT_APPROVAL_WORKFLOW_M.vstx - DOCUMENT_APPROVAL_WORKFLOW_M" xr:uid="{45062C57-966C-431C-8535-A07679276C98}"/>
+    <hyperlink ref="A43" r:id="rId42" location="DRILLD_M" display="DRILLD_M.vstx - DRILLD_M" xr:uid="{24166B42-19BD-4853-91D0-E3220E425837}"/>
+    <hyperlink ref="A44" r:id="rId43" location="DTLNET_M" display="DTLNET_M.vstx - DTLNET_M" xr:uid="{58AAF57F-A3EA-499F-9ECD-B9E601D9F258}"/>
+    <hyperlink ref="A45" r:id="rId44" location="DTLNME_M" display="DTLNME_M.vstx - DTLNME_M" xr:uid="{7CEC8962-D455-4A1F-9B67-52A50E1C7219}"/>
+    <hyperlink ref="A46" r:id="rId45" location="DWGCNV_M" display="DWGCNV_M.vstx - DWGCNV_M" xr:uid="{C5FFFA8E-72C3-4236-B316-1D3ADC2EB62F}"/>
+    <hyperlink ref="A47" r:id="rId46" location="EDU_EECHIP_M" display="EDU_EECHIP_M.vstx - EDU_EECHIP_M" xr:uid="{F74E28D6-CA26-4F79-8F6A-8BDDC4336E8C}"/>
+    <hyperlink ref="A48" r:id="rId47" location="EECHIP_M" display="EECHIP_M.vstx - EECHIP_M" xr:uid="{1BFD2A85-1F03-4540-AB61-F2ED5B97A317}"/>
+    <hyperlink ref="A49" r:id="rId48" location="EEGENR_M" display="EEGENR_M.vstx - EEGENR_M" xr:uid="{E0C536DC-68FF-427C-B70A-6C6362BAF3F2}"/>
+    <hyperlink ref="A50" r:id="rId49" location="EEICS_M" display="EEICS_M.vstx - EEICS_M" xr:uid="{A846E889-4A1D-42D9-91FE-4FF107637EE0}"/>
+    <hyperlink ref="A51" r:id="rId50" location="EESYS_M" display="EESYS_M.vstx - EESYS_M" xr:uid="{D416EA5C-EC5D-40A0-A729-395A5F6E5464}"/>
+    <hyperlink ref="A52" r:id="rId51" location="ELETEL_M" display="ELETEL_M.vstx - ELETEL_M" xr:uid="{D035752D-FB60-4244-B4C4-D63D1665E1E3}"/>
+    <hyperlink ref="A53" r:id="rId52" location="ENTAPP_M" display="ENTAPP_M.vstx - ENTAPP_M" xr:uid="{8FF10EC5-FE88-41BE-8D09-C1C17A679D83}"/>
+    <hyperlink ref="A54" r:id="rId53" location="EPC_M" display="EPC_M.vstx - EPC_M" xr:uid="{6AD7B20D-8571-439C-A69C-2189369A5C9C}"/>
+    <hyperlink ref="A55" r:id="rId54" location="FAULT_M" display="FAULT_M.vstx - FAULT_M" xr:uid="{98A9FBC0-371F-4CB5-B1D2-DD16764624F4}"/>
+    <hyperlink ref="A56" r:id="rId55" location="FLRPLN_M" display="FLRPLN_M.vstx - FLRPLN_M" xr:uid="{8074C296-4B12-44CD-9485-1EF5434086EE}"/>
+    <hyperlink ref="A57" r:id="rId56" location="FPALL_M" display="FPALL_M.vstx - FPALL_M" xr:uid="{4F61317F-7EB9-40EC-8D02-1C5365AE42E8}"/>
+    <hyperlink ref="A58" r:id="rId57" location="GANTT_M" display="GANTT_M.vstx - GANTT_M" xr:uid="{C6360633-8955-45B6-A484-DA3E2B86B7D7}"/>
+    <hyperlink ref="A59" r:id="rId58" location="HIERARCHICALORGCHART_M" display="HIERARCHICALORGCHART_M.vstx - HIERARCHICALORGCHART_M" xr:uid="{876E5B57-66FD-4B34-8D26-CE2FB6FADADA}"/>
+    <hyperlink ref="A60" r:id="rId59" location="HOMPLN_M" display="HOMPLN_M.vstx - HOMPLN_M" xr:uid="{EC5D3B86-3BE7-4AF0-BB70-9584F01B727A}"/>
+    <hyperlink ref="A61" r:id="rId60" location="HVAC_M" display="HVAC_M.vstx - HVAC_M" xr:uid="{50EEB86C-770D-4699-B493-A00AD1BBB2CE}"/>
+    <hyperlink ref="A62" r:id="rId61" location="IDEF0_M" display="IDEF0_M.vstx - IDEF0_M" xr:uid="{688828C4-5B01-42C0-971B-B3EFA91DFC0E}"/>
+    <hyperlink ref="A63" r:id="rId62" location="INTERFACE_UML_CLASS_M" display="INTERFACE_UML_CLASS_M.vstx - INTERFACE_UML_CLASS_M" xr:uid="{EE20D291-283B-41CC-AA31-300F791E5F0A}"/>
+    <hyperlink ref="A64" r:id="rId63" location="ITIL_M" display="ITIL_M.vstx - ITIL_M" xr:uid="{7B14C309-6896-407E-982E-5EEC70177CA7}"/>
+    <hyperlink ref="A65" r:id="rId64" location="LDAPDR_M" display="LDAPDR_M.vstx - LDAPDR_M" xr:uid="{8CE40121-0A21-4E30-B913-A68D0BFE22EB}"/>
+    <hyperlink ref="A66" r:id="rId65" location="MAP3D_M" display="MAP3D_M.vstx - MAP3D_M" xr:uid="{06560E25-E088-427C-9BB4-087AE0407263}"/>
+    <hyperlink ref="A67" r:id="rId66" location="MAP_M" display="MAP_M.vstx - MAP_M" xr:uid="{1142E6AC-2911-41AD-9CAC-5D259B0FD0BD}"/>
+    <hyperlink ref="A68" r:id="rId67" location="MEALL_M" display="MEALL_M.vstx - MEALL_M" xr:uid="{A8DD462F-6A0C-405F-8518-7A9D4E3ECDE6}"/>
+    <hyperlink ref="A69" r:id="rId68" location="MEDIUMENTERPRISECORPNET_M" display="MEDIUMENTERPRISECORPNET_M.vstx - MEDIUMENTERPRISECORPNET_M" xr:uid="{9C964E0E-BC98-4A98-9070-172DE4283D28}"/>
+    <hyperlink ref="A70" r:id="rId69" location="MRKTDG_M" display="MRKTDG_M.vstx - MRKTDG_M" xr:uid="{B20F6335-18E0-4B5C-A877-9E6222790761}"/>
+    <hyperlink ref="A71" r:id="rId70" location="NETWME_M" display="NETWME_M.vstx - NETWME_M" xr:uid="{C16BF303-B286-483B-8551-9C9049FE6B31}"/>
+    <hyperlink ref="A72" r:id="rId71" location="NETW_M" display="NETW_M.vstx - NETW_M" xr:uid="{1E9B015C-6C52-4BC4-B89F-A124100F3900}"/>
+    <hyperlink ref="A73" r:id="rId72" location="OFFLYT_M" display="OFFLYT_M.vstx - OFFLYT_M" xr:uid="{292EDEC0-9A06-472B-9120-93BA89F7CD96}"/>
+    <hyperlink ref="A74" r:id="rId73" location="ONPAGEFLOWCHART_M" display="ONPAGEFLOWCHART_M.vstx - ONPAGEFLOWCHART_M" xr:uid="{2BA60194-117C-4365-9CD8-9FF9A9F321EF}"/>
+    <hyperlink ref="A75" r:id="rId74" location="ORGCH_M" display="ORGCH_M.vstx - ORGCH_M" xr:uid="{DB2BEF4B-487C-4EE8-BD3D-CCCFD8784647}"/>
+    <hyperlink ref="A76" r:id="rId75" location="ORGWIZ_M" display="ORGWIZ_M.vstx - ORGWIZ_M" xr:uid="{86AB3A14-D57E-4A7A-B3A7-9830116ADB5B}"/>
+    <hyperlink ref="A77" r:id="rId76" location="PBASLN_M" display="PBASLN_M.vstx - PBASLN_M" xr:uid="{A637FA4D-6580-49E6-B1BE-251E1FD14FC0}"/>
+    <hyperlink ref="A78" r:id="rId77" location="PBLANK_M" display="PBLANK_M.vstx - PBLANK_M" xr:uid="{3DD80CA3-03A5-4D46-ABFE-84D678674626}"/>
+    <hyperlink ref="A79" r:id="rId78" location="PCRTSK_M" display="PCRTSK_M.vstx - PCRTSK_M" xr:uid="{26C24F8E-0441-43A7-9048-ED6C80AF315C}"/>
+    <hyperlink ref="A80" r:id="rId79" location="PCSHFL_M" display="PCSHFL_M.vstx - PCSHFL_M" xr:uid="{E572326B-B619-41A0-8DDA-3980777213A8}"/>
+    <hyperlink ref="A81" r:id="rId80" location="PEDG_M" display="PEDG_M.vstx - PEDG_M" xr:uid="{2E2E5467-F896-43D7-9CC2-50C062EEA2E0}"/>
+    <hyperlink ref="A82" r:id="rId81" location="PEPIPE_M" display="PEPIPE_M.vstx - PEPIPE_M" xr:uid="{D2DB3E08-6CF3-472E-9FC9-15C5B6E67048}"/>
+    <hyperlink ref="A83" r:id="rId82" location="PERT_M" display="PERT_M.vstx - PERT_M" xr:uid="{DBD92ABF-8371-4F98-B895-677B892328A2}"/>
+    <hyperlink ref="A84" r:id="rId83" location="PLMPIP_M" display="PLMPIP_M.vstx - PLMPIP_M" xr:uid="{033DAD35-BDEA-4743-A9EC-17D638281088}"/>
+    <hyperlink ref="A85" r:id="rId84" location="PLTLYT_M" display="PLTLYT_M.vstx - PLTLYT_M" xr:uid="{AB867C08-03A2-48B6-8831-0887F670CF0D}"/>
+    <hyperlink ref="A86" r:id="rId85" location="PRSAVL_M" display="PRSAVL_M.vstx - PRSAVL_M" xr:uid="{44503C48-06B3-442C-BECC-8B580050B610}"/>
+    <hyperlink ref="A87" r:id="rId86" location="PRSSTS_M" display="PRSSTS_M.vstx - PRSSTS_M" xr:uid="{2883199F-DDB3-4309-90C8-D7CDA90872AE}"/>
+    <hyperlink ref="A88" r:id="rId87" location="PSTRCT_M" display="PSTRCT_M.vstx - PSTRCT_M" xr:uid="{830DBD89-5F42-4468-98D6-1173E604C9DC}"/>
+    <hyperlink ref="A89" r:id="rId88" location="PTSKST_M" display="PTSKST_M.vstx - PTSKST_M" xr:uid="{454B406B-27E9-4057-810D-4AB454D27482}"/>
+    <hyperlink ref="A90" r:id="rId89" location="RACK_M" display="RACK_M.vstx - RACK_M" xr:uid="{6A54CE8A-2E0E-4527-BCB3-F9081A50E489}"/>
+    <hyperlink ref="A91" r:id="rId90" location="SDL_M" display="SDL_M.vstx - SDL_M" xr:uid="{EE666434-E749-4D66-B1E3-0AD71874C4B6}"/>
+    <hyperlink ref="A92" r:id="rId91" location="SECACC_M" display="SECACC_M.vstx - SECACC_M" xr:uid="{9311FA09-20F8-4CCB-A5F4-ACBAABF3197F}"/>
+    <hyperlink ref="A93" r:id="rId92" location="SHAREPOINT_EXTRANETTOPOLOGY_M" display="SHAREPOINT_EXTRANETTOPOLOGY_M.vstx - SHAREPOINT_EXTRANETTOPOLOGY_M" xr:uid="{9E8416E0-E0FB-4FA3-9456-B34B1362ABB2}"/>
+    <hyperlink ref="A94" r:id="rId93" location="SIMPLE_WORKFLOW_M" display="SIMPLE_WORKFLOW_M.vstx - SIMPLE_WORKFLOW_M" xr:uid="{9BD10633-9D93-4030-B1C7-02C7638B3B59}"/>
+    <hyperlink ref="A95" r:id="rId94" location="SITPLN_M" display="SITPLN_M.vstx - SITPLN_M" xr:uid="{E49A8743-652F-4F5E-9E57-BAF0EA0CD756}"/>
+    <hyperlink ref="A96" r:id="rId95" location="SIXSIG_M" display="SIXSIG_M.vstx - SIXSIG_M" xr:uid="{42A662AB-5C8F-4898-875E-E51B634BA012}"/>
+    <hyperlink ref="A97" r:id="rId96" location="SMALLMEDIUM_BUSINESS_NETWORK_M" display="SMALLMEDIUM_BUSINESS_NETWORK_M.vstx - SMALLMEDIUM_BUSINESS_NETWORK_M" xr:uid="{FA93D0B6-FFB3-430A-8918-4C66654EB2D2}"/>
+    <hyperlink ref="A98" r:id="rId97" location="SPCPLN_M" display="SPCPLN_M.vstx - SPCPLN_M" xr:uid="{144133DB-7E29-476B-835D-C6368474C3C0}"/>
+    <hyperlink ref="A99" r:id="rId98" location="SPW2_M" display="SPW2_M.vstx - SPW2_M" xr:uid="{52717091-DE1D-4239-BAC7-6372C0495544}"/>
+    <hyperlink ref="A100" r:id="rId99" location="SPW_M" display="SPW_M.vstx - SPW_M" xr:uid="{EB77C7D8-1958-464F-86E3-C68D5A60CEE2}"/>
+    <hyperlink ref="A101" r:id="rId100" location="SUBPROCESSFLOWCHART_M" display="SUBPROCESSFLOWCHART_M.vstx - SUBPROCESSFLOWCHART_M" xr:uid="{06581FAA-0DEC-48F5-A903-13202638650C}"/>
+    <hyperlink ref="A102" r:id="rId101" location="SUBTASKS_GANTTCHART_M" display="SUBTASKS_GANTTCHART_M.vstx - SUBTASKS_GANTTCHART_M" xr:uid="{1EE40A9A-D33F-4473-818B-162BCF5AE86F}"/>
+    <hyperlink ref="A103" r:id="rId102" location="TIMELN_CYLINDRICAL_M" display="TIMELN_CYLINDRICAL_M.vstx - TIMELN_CYLINDRICAL_M" xr:uid="{96B5A724-3E5A-494C-950B-FABE04A6C57B}"/>
+    <hyperlink ref="A104" r:id="rId103" location="TIMELN_EXPANDEDBLOCK_M" display="TIMELN_EXPANDEDBLOCK_M.vstx - TIMELN_EXPANDEDBLOCK_M" xr:uid="{AED39BB2-6678-4310-9EC4-2F3F199B0171}"/>
+    <hyperlink ref="A105" r:id="rId104" location="TIMELN_M" display="TIMELN_M.vstx - TIMELN_M" xr:uid="{258D43CC-3D94-4F28-A034-F99CD6BCA916}"/>
+    <hyperlink ref="A106" r:id="rId105" location="TIMELN_VERTICALBLOCK_M" display="TIMELN_VERTICALBLOCK_M.vstx - TIMELN_VERTICALBLOCK_M" xr:uid="{982D0E24-A310-4048-89C9-8C88BFF1C6E8}"/>
+    <hyperlink ref="A107" r:id="rId106" location="TQM_M" display="TQM_M.vstx - TQM_M" xr:uid="{29614B5C-647E-4616-BA5A-E6B3D3F47237}"/>
+    <hyperlink ref="A108" r:id="rId107" location="UACTME_M" display="UACTME_M.vstx - UACTME_M" xr:uid="{4AB866C1-6CF7-4046-9F9C-938170BD96AE}"/>
+    <hyperlink ref="A109" r:id="rId108" location="UCMNME_BASIC_M" display="UCMNME_BASIC_M.vstx - UCMNME_BASIC_M" xr:uid="{1D97D9AC-A1CD-4627-A405-972CAB127E85}"/>
+    <hyperlink ref="A110" r:id="rId109" location="UCMNME_BASIC_R2L" display="UCMNME_BASIC_R2L.vstx - UCMNME_BASIC_R2L" xr:uid="{080B2A37-3C9D-4D6E-80A7-B33F50186C5D}"/>
+    <hyperlink ref="A111" r:id="rId110" location="UCMNME_M" display="UCMNME_M.vstx - UCMNME_M" xr:uid="{52317754-95E1-4D94-B339-B55ED4B7C44E}"/>
+    <hyperlink ref="A112" r:id="rId111" location="UCMNME_SEQUENCEEXPRESSION_1_M" display="UCMNME_SEQUENCEEXPRESSION_1_M.vstx - UCMNME_SEQUENCEEXPRESSION_1_M" xr:uid="{A5BED127-5588-46F0-871D-BB356EA5BE5D}"/>
+    <hyperlink ref="A113" r:id="rId112" location="UCMNME_SEQUENCEEXPRESSION_1_R2L" display="UCMNME_SEQUENCEEXPRESSION_1_R2L.vstx - UCMNME_SEQUENCEEXPRESSION_1_R2L" xr:uid="{3875997C-524E-42C9-9E1F-C912BBE64420}"/>
+    <hyperlink ref="A114" r:id="rId113" location="UCMNME_SEQUENCEEXPRESSION_2_M" display="UCMNME_SEQUENCEEXPRESSION_2_M.vstx - UCMNME_SEQUENCEEXPRESSION_2_M" xr:uid="{BD69F093-EE04-4E00-A9BC-E86DEC159BB9}"/>
+    <hyperlink ref="A115" r:id="rId114" location="UCMNME_SEQUENCEEXPRESSION_2_R2L" display="UCMNME_SEQUENCEEXPRESSION_2_R2L.vstx - UCMNME_SEQUENCEEXPRESSION_2_R2L" xr:uid="{818FC0BD-FE83-4399-9067-5EE850C7B8A7}"/>
+    <hyperlink ref="A116" r:id="rId115" location="UCOMME_BASIC_M" display="UCOMME_BASIC_M.vstx - UCOMME_BASIC_M" xr:uid="{528E2B0C-C2E2-49E3-B021-3DCBF0D3225A}"/>
+    <hyperlink ref="A117" r:id="rId116" location="UCOMME_BASIC_R2L" display="UCOMME_BASIC_R2L.vstx - UCOMME_BASIC_R2L" xr:uid="{AA0F0577-46AF-413D-AE6B-9F8E5047AE39}"/>
+    <hyperlink ref="A118" r:id="rId117" location="UCOMME_M" display="UCOMME_M.vstx - UCOMME_M" xr:uid="{46DC1C7B-BF0A-42C5-AD7D-2AF3E13643F7}"/>
+    <hyperlink ref="A119" r:id="rId118" location="UCOMME_MODULE_M" display="UCOMME_MODULE_M.vstx - UCOMME_MODULE_M" xr:uid="{8F36D56B-7A6E-4701-B2ED-FD469946459B}"/>
+    <hyperlink ref="A120" r:id="rId119" location="UCOMME_MODULE_R2L" display="UCOMME_MODULE_R2L.vstx - UCOMME_MODULE_R2L" xr:uid="{FE757AE3-84C0-401E-BB77-DD8B388E20FF}"/>
+    <hyperlink ref="A121" r:id="rId120" location="UCOMME_SUBSYSTEM_M" display="UCOMME_SUBSYSTEM_M.vstx - UCOMME_SUBSYSTEM_M" xr:uid="{62BBAAA0-9677-4C88-B4A4-94486729D18F}"/>
+    <hyperlink ref="A122" r:id="rId121" location="UCOMME_SUBSYSTEM_R2L" display="UCOMME_SUBSYSTEM_R2L.vstx - UCOMME_SUBSYSTEM_R2L" xr:uid="{134DC90E-1F0F-4EDE-B01F-A8AA34F0145A}"/>
+    <hyperlink ref="A123" r:id="rId122" location="UDEPME_BASIC_M" display="UDEPME_BASIC_M.vstx - UDEPME_BASIC_M" xr:uid="{1FB92DE8-46AE-4E6D-809F-F6EB8892519E}"/>
+    <hyperlink ref="A124" r:id="rId123" location="UDEPME_BASIC_R2L" display="UDEPME_BASIC_R2L.vstx - UDEPME_BASIC_R2L" xr:uid="{C24F3F98-B1B4-43B4-ABD4-16F24AA9CD58}"/>
+    <hyperlink ref="A125" r:id="rId124" location="UDEPME_HIERARCHICAL_NODES_M" display="UDEPME_HIERARCHICAL_NODES_M.vstx - UDEPME_HIERARCHICAL_NODES_M" xr:uid="{4B661701-1CAC-4477-9870-6668BB0A26E6}"/>
+    <hyperlink ref="A126" r:id="rId125" location="UDEPME_HIERARCHICAL_NODES_R2L" display="UDEPME_HIERARCHICAL_NODES_R2L.vstx - UDEPME_HIERARCHICAL_NODES_R2L" xr:uid="{011DD0EA-46D9-46C1-8302-0082560D0594}"/>
+    <hyperlink ref="A127" r:id="rId126" location="UDEPME_M" display="UDEPME_M.vstx - UDEPME_M" xr:uid="{49EEF167-A561-4FE3-BCB1-56A51528280E}"/>
+    <hyperlink ref="A128" r:id="rId127" location="UDEPME_MANIFESTATION_M" display="UDEPME_MANIFESTATION_M.vstx - UDEPME_MANIFESTATION_M" xr:uid="{30BE9C6D-5971-4C13-BC95-3DE33445FCFA}"/>
+    <hyperlink ref="A129" r:id="rId128" location="UDEPME_MANIFESTATION_R2L" display="UDEPME_MANIFESTATION_R2L.vstx - UDEPME_MANIFESTATION_R2L" xr:uid="{EFE9FE36-1896-4BB1-8206-80D2575EFDEA}"/>
+    <hyperlink ref="A130" r:id="rId129" location="UMLSEQUENCE_INTERACTIONFRAME_M" display="UMLSEQUENCE_INTERACTIONFRAME_M.vstx - UMLSEQUENCE_INTERACTIONFRAME_M" xr:uid="{18D97B31-3127-44A8-BB4D-75605AFE3475}"/>
+    <hyperlink ref="A131" r:id="rId130" location="UMLSEQUENCE_LOOP_M" display="UMLSEQUENCE_LOOP_M.vstx - UMLSEQUENCE_LOOP_M" xr:uid="{6C21402B-868D-47B6-971F-2D5C92964F3C}"/>
+    <hyperlink ref="A132" r:id="rId131" location="UML_CLASS_M" display="UML_CLASS_M.vstx - UML_CLASS_M" xr:uid="{FE112B84-6300-4424-BE64-A4738F2BBDCE}"/>
+    <hyperlink ref="A133" r:id="rId132" location="UML_USECASE_DEPENDENCIES_M" display="UML_USECASE_DEPENDENCIES_M.vstx - UML_USECASE_DEPENDENCIES_M" xr:uid="{52F369D4-D057-4D61-B293-1C4C30900681}"/>
+    <hyperlink ref="A134" r:id="rId133" location="UML_USECASE_M" display="UML_USECASE_M.vstx - UML_USECASE_M" xr:uid="{95D741C8-1A1B-4DFB-AFEF-01FA2AD87E71}"/>
+    <hyperlink ref="A135" r:id="rId134" location="UML_USECASE_SUBSYSTEM_M" display="UML_USECASE_SUBSYSTEM_M.vstx - UML_USECASE_SUBSYSTEM_M" xr:uid="{C2C0BEA2-E684-46C3-98C8-5AF06AA9EF86}"/>
+    <hyperlink ref="A136" r:id="rId135" location="USEQME_M" display="USEQME_M.vstx - USEQME_M" xr:uid="{E4808BFF-B90C-40F4-B03E-E5CA9A25357A}"/>
+    <hyperlink ref="A137" r:id="rId136" location="USTAME_M" display="USTAME_M.vstx - USTAME_M" xr:uid="{33A4F0BE-C29A-4B5B-B267-37BDA2CD85B2}"/>
+    <hyperlink ref="A138" r:id="rId137" location="USTRME_M" display="USTRME_M.vstx - USTRME_M" xr:uid="{8D8996A1-0C2A-4067-A70F-E8B0D34C2450}"/>
+    <hyperlink ref="A139" r:id="rId138" location="UUSEME_M" display="UUSEME_M.vstx - UUSEME_M" xr:uid="{476B402F-0655-4D59-A503-38909F01A8B5}"/>
+    <hyperlink ref="A140" r:id="rId139" location="VERTICALFLOWCHART_M" display="VERTICALFLOWCHART_M.vstx - VERTICALFLOWCHART_M" xr:uid="{AA10FEBA-E458-4ED4-9342-E9FF28398A4F}"/>
+    <hyperlink ref="A141" r:id="rId140" location="VSM_M" display="VSM_M.vstx - VSM_M" xr:uid="{7A16C1DF-C7C9-4E6B-BEBE-785897482FF5}"/>
+    <hyperlink ref="A142" r:id="rId141" location="WEBMAP_M" display="WEBMAP_M.vstx - WEBMAP_M" xr:uid="{FEA76742-775C-4470-98F0-CA11DA744953}"/>
+    <hyperlink ref="A143" r:id="rId142" location="WEBSIT_M" display="WEBSIT_M.vstx - WEBSIT_M" xr:uid="{EEC43178-1BFD-4741-801D-623EE680B5CA}"/>
+    <hyperlink ref="A144" r:id="rId143" location="WFDGM_M" display="WFDGM_M.vstx - WFDGM_M" xr:uid="{80928EDA-05AD-4986-A95D-7A15C8CD74A8}"/>
+    <hyperlink ref="A145" r:id="rId144" location="WORKFLOW_DEPARTMENTAL_M" display="WORKFLOW_DEPARTMENTAL_M.vstx - WORKFLOW_DEPARTMENTAL_M" xr:uid="{93803FE4-343A-42C9-8BAE-2B5D2477349E}"/>
+    <hyperlink ref="A146" r:id="rId145" location="WORKFLOW_FUNCTION_M" display="WORKFLOW_FUNCTION_M.vstx - WORKFLOW_FUNCTION_M" xr:uid="{6BBB2D46-C3B7-4B36-9FB9-8D9D507358C9}"/>
+    <hyperlink ref="A147" r:id="rId146" location="WORKFLOW_PROCESS_M" display="WORKFLOW_PROCESS_M.vstx - WORKFLOW_PROCESS_M" xr:uid="{78C0235E-42F2-4F71-9D4F-7CF6DB977641}"/>
+    <hyperlink ref="A148" r:id="rId147" location="WRKFLO_M" display="WRKFLO_M.vstx - WRKFLO_M" xr:uid="{4A104CF2-432C-43FA-8077-8E5EFAD86916}"/>
+    <hyperlink ref="A149" r:id="rId148" location="WRKFME_M" display="WRKFME_M.vstx - WRKFME_M" xr:uid="{77EE55C9-1E04-4BDA-9971-98E62DD4D39E}"/>
+    <hyperlink ref="A150" r:id="rId149" location="WWFC_BLOG_M" display="WWFC_BLOG_M.vstx - WWFC_BLOG_M" xr:uid="{5F9FF0E4-E1E7-4143-B2F6-A6277BB78C6B}"/>
+    <hyperlink ref="A151" r:id="rId150" location="WWFC_BLOG_R2L" display="WWFC_BLOG_R2L.vstx - WWFC_BLOG_R2L" xr:uid="{2F763571-FCB7-4AC6-9F7F-020DB2D31BD4}"/>
+    <hyperlink ref="A152" r:id="rId151" location="WWFC_CONTENTRICH_M" display="WWFC_CONTENTRICH_M.vstx - WWFC_CONTENTRICH_M" xr:uid="{682E6164-4882-48A2-AC61-0FF95FAA5F4D}"/>
+    <hyperlink ref="A153" r:id="rId152" location="WWFC_CONTENTRICH_R2L" display="WWFC_CONTENTRICH_R2L.vstx - WWFC_CONTENTRICH_R2L" xr:uid="{816A2BA9-B2BF-4D91-9540-651FDF4081E6}"/>
+    <hyperlink ref="A154" r:id="rId153" location="WWFC_ECOMMERCE_M" display="WWFC_ECOMMERCE_M.vstx - WWFC_ECOMMERCE_M" xr:uid="{9C8B8652-F3FF-44BB-9DD2-D21A90510F1D}"/>
+    <hyperlink ref="A155" r:id="rId154" location="WWFC_ECOMMERCE_R2L" display="WWFC_ECOMMERCE_R2L.vstx - WWFC_ECOMMERCE_R2L" xr:uid="{6B74A756-2683-4E50-9031-AF658552731B}"/>
+    <hyperlink ref="A156" r:id="rId155" location="WWFC_M" display="WWFC_M.vstx - WWFC_M" xr:uid="{F29F877B-FB1B-49B6-919D-D47C3ED23F49}"/>
+    <hyperlink ref="A157" r:id="rId156" location="XFUNC_M" display="XFUNC_M.vstx - XFUNC_M" xr:uid="{561EAB0C-30FF-4148-87F2-830DEAF58A4D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId157"/>

--- a/helpful/VisioTemplates_Stats.xlsx
+++ b/helpful/VisioTemplates_Stats.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{908FB860-2BA1-47A0-8F50-36ECF9E1E258}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B2D555-3A33-4AF6-AAC7-79BBA330FA09}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10546" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1832,7 +1832,7 @@
   <dimension ref="A1:Q157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6928,162 +6928,162 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="ACTDIR_" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="A3" r:id="rId2" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/ACTUAL_FINISHDATES_GANTTCHART_M.VSTX" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="A4" r:id="rId3" display="c:\Program Files (x86)\Microsoft Office\root\Office16\Visio Content\1049\ASSOCIATIONS_UML_CLASS_M.vstx" xr:uid="{89D2DEC5-3697-4F69-863E-1125A8D98D0D}"/>
-    <hyperlink ref="A5" r:id="rId4" display="c:\Program Files (x86)\Microsoft Office\root\Office16\Visio Content\1049\AUDIT_M.vstx" xr:uid="{7B19601E-0290-49EB-9F39-2085FC1A68EF}"/>
-    <hyperlink ref="A6" r:id="rId5" location="AUDIT_SEVERAL_OUTCOMES_M" display="AUDIT_SEVERAL_OUTCOMES_M.vstx - AUDIT_SEVERAL_OUTCOMES_M" xr:uid="{CD3913EC-9E92-4211-A5A6-6BA5B5F4EF12}"/>
-    <hyperlink ref="A7" r:id="rId6" location="AUDIT_SUBPROCESS_M" display="AUDIT_SUBPROCESS_M.vstx - AUDIT_SUBPROCESS_M" xr:uid="{25B22561-8159-4082-82B8-5FB53C3E32B3}"/>
-    <hyperlink ref="A8" r:id="rId7" location="BASFLO_M" xr:uid="{5CDDCD25-43C5-4F54-B5C4-5B177B8E2485}"/>
-    <hyperlink ref="A9" r:id="rId8" location="BASICCIRCUIT_DIAGRAM_M" display="BASICCIRCUIT_DIAGRAM_M.vstx - BASICCIRCUIT_DIAGRAM_M" xr:uid="{D05FB118-A728-4AB5-95DE-62C204380876}"/>
-    <hyperlink ref="A10" r:id="rId9" location="BASICD_M" display="BASICD_M.vstx - BASICD_M" xr:uid="{85E8E744-B177-476C-9D13-298209681BAC}"/>
-    <hyperlink ref="A11" r:id="rId10" location="BASICELECTRICAL_DIAGRAM_M" display="BASICELECTRICAL_DIAGRAM_M.vstx - BASICELECTRICAL_DIAGRAM_M" xr:uid="{0D32A0FF-0BCD-4BC5-B564-8B009EAD2276}"/>
-    <hyperlink ref="A12" r:id="rId11" location="BASIC_AUDITDIAGRAM_M" display="BASIC_AUDITDIAGRAM_M.vstx - BASIC_AUDITDIAGRAM_M" xr:uid="{DDCCF4E5-D4A3-46D2-AC83-EF932BBDADAE}"/>
-    <hyperlink ref="A13" r:id="rId12" location="BASIC_GANTTCHART_M" display="BASIC_GANTTCHART_M.vstx - BASIC_GANTTCHART_M" xr:uid="{9239069A-33F3-4887-A1D4-41C84A941D06}"/>
-    <hyperlink ref="A14" r:id="rId13" location="BASIC_HOME_NETWORK_M" display="BASIC_HOME_NETWORK_M.vstx - BASIC_HOME_NETWORK_M" xr:uid="{9324EBE6-F802-4B94-BFDC-086687360DD2}"/>
-    <hyperlink ref="A15" r:id="rId14" location="BASIC_UMLSEQUENCE_M" display="BASIC_UMLSEQUENCE_M.vstx - BASIC_UMLSEQUENCE_M" xr:uid="{658FBC71-1809-4E99-A59C-6D6869FFC75D}"/>
-    <hyperlink ref="A16" r:id="rId15" location="BF_DATAVISUALIZER_M" display="BF_DATAVISUALIZER_M.vstx - BF_DATAVISUALIZER_M" xr:uid="{2EAACD63-7075-491E-B945-671A98730A98}"/>
-    <hyperlink ref="A17" r:id="rId16" location="BLOCKP_M" display="BLOCKP_M.vstx - BLOCKP_M" xr:uid="{51553BBB-8F72-4BA0-8284-C8C50DB9E0B4}"/>
-    <hyperlink ref="A18" r:id="rId17" location="BLOCK_M" display="BLOCK_M.vstx - BLOCK_M" xr:uid="{376485DA-895D-4A58-85D6-DE64E46AFA4C}"/>
-    <hyperlink ref="A19" r:id="rId18" location="BPMN_ADDRESS_CHANGE_PROCESS_M" display="BPMN_ADDRESS_CHANGE_PROCESS_M.vstx - BPMN_ADDRESS_CHANGE_PROCESS_M" xr:uid="{AAFC7813-B566-499E-9352-E57B893714D1}"/>
-    <hyperlink ref="A20" r:id="rId19" location="BPMN_M" display="BPMN_M.vstx - BPMN_M" xr:uid="{5754906B-0A40-4521-9E25-37CC3CDB47FE}"/>
-    <hyperlink ref="A21" r:id="rId20" location="BPMN_PROCESS_GATEWAY_M" display="BPMN_PROCESS_GATEWAY_M.vstx - BPMN_PROCESS_GATEWAY_M" xr:uid="{EC180276-7A30-48A5-A465-EE6E5C042E86}"/>
-    <hyperlink ref="A22" r:id="rId21" location="BPMN_PROCESS_MULTIPLE_ROLES_M" display="BPMN_PROCESS_MULTIPLE_ROLES_M.vstx - BPMN_PROCESS_MULTIPLE_ROLES_M" xr:uid="{18F078B0-326E-46D8-AE5F-19499C3F5C49}"/>
-    <hyperlink ref="A23" r:id="rId22" location="BSTORM_M" display="BSTORM_M.vstx - BSTORM_M" xr:uid="{588677CB-A2E7-4F81-B3C0-9DF022E79E03}"/>
-    <hyperlink ref="A24" r:id="rId23" location="CALNDR_M" display="CALNDR_M.vstx - CALNDR_M" xr:uid="{2CC6FAA8-DFE6-404E-A9B1-15317B1BDA40}"/>
-    <hyperlink ref="A25" r:id="rId24" location="CAUSEF_M" display="CAUSEF_M.vstx - CAUSEF_M" xr:uid="{6428CFE6-CC2D-4722-8D51-0DA213CC77B0}"/>
-    <hyperlink ref="A26" r:id="rId25" location="CEILPL_M" display="CEILPL_M.vstx - CEILPL_M" xr:uid="{B9D865EE-F20C-4228-A790-3BA183B2C8E6}"/>
-    <hyperlink ref="A27" r:id="rId26" location="CFF_DATAVISUALIZER_M" display="CFF_DATAVISUALIZER_M.vstx - CFF_DATAVISUALIZER_M" xr:uid="{44A44B3F-4F7C-4396-9212-697941744BE9}"/>
-    <hyperlink ref="A28" r:id="rId27" location="CFF_HORIZONTAL_M" display="CFF_HORIZONTAL_M.vstx - CFF_HORIZONTAL_M" xr:uid="{34C1D70A-4465-43B3-B9BC-6AE4E54E7146}"/>
-    <hyperlink ref="A29" r:id="rId28" location="CFF_SHAREDPROCESS_M" display="CFF_SHAREDPROCESS_M.vstx - CFF_SHAREDPROCESS_M" xr:uid="{01B36EC8-826B-4526-8286-B079F85568D1}"/>
-    <hyperlink ref="A30" r:id="rId29" location="CFF_VERTICAL_M" display="CFF_VERTICAL_M.vstx - CFF_VERTICAL_M" xr:uid="{BC1F26F1-8E22-40F8-B89A-080B31BA2D21}"/>
-    <hyperlink ref="A31" r:id="rId30" location="CHART_M" display="CHART_M.vstx - CHART_M" xr:uid="{2CC9DCDA-932A-4006-AC60-4AF35E7F8044}"/>
-    <hyperlink ref="A32" r:id="rId31" location="COMOLE_M" display="COMOLE_M.vstx - COMOLE_M" xr:uid="{EA972DE2-A614-4D68-A7D2-9C4914D251DF}"/>
-    <hyperlink ref="A33" r:id="rId32" location="CONLOG_M" display="CONLOG_M.vstx - CONLOG_M" xr:uid="{02CAA6A4-D6E1-4F92-9BCF-6CF416ADB9C2}"/>
-    <hyperlink ref="A34" r:id="rId33" location="DATFLO_M" display="DATFLO_M.vstx - DATFLO_M" xr:uid="{0E2EF032-F9B0-45E6-85E1-7896C840ABEC}"/>
-    <hyperlink ref="A35" r:id="rId34" location="DATMOD_M" display="DATMOD_M.vstx - DATMOD_M" xr:uid="{124D6672-9B1E-418D-80FA-0D8FBFD77092}"/>
-    <hyperlink ref="A36" r:id="rId35" location="DBCHEN_M" display="DBCHEN_M.vstx - DBCHEN_M" xr:uid="{775361C3-02D5-404B-9E6C-A09C3A3ED30F}"/>
-    <hyperlink ref="A37" r:id="rId36" location="DBCROW_M" display="DBCROW_M.vstx - DBCROW_M" xr:uid="{3DC4EB53-7131-405B-BEF1-7C08E6E35507}"/>
-    <hyperlink ref="A38" r:id="rId37" location="DBIDEF1X_M" display="DBIDEF1X_M.vstx - DBIDEF1X_M" xr:uid="{D47D302A-ACC2-4ACC-9B3E-3DFBD9F994DC}"/>
-    <hyperlink ref="A39" r:id="rId38" location="DBMODL_M" display="DBMODL_M.vstx - DBMODL_M" xr:uid="{488EF072-27AF-43AA-8A7F-80CF9684F301}"/>
-    <hyperlink ref="A40" r:id="rId39" location="DBUML_M" display="DBUML_M.vstx - DBUML_M" xr:uid="{2F1B664A-CBA2-4BCC-87CD-C1389D351FB9}"/>
-    <hyperlink ref="A41" r:id="rId40" location="DEPTORGCHART_M" display="DEPTORGCHART_M.vstx - DEPTORGCHART_M" xr:uid="{1CF0530E-A85D-441D-922D-92A0E733A712}"/>
-    <hyperlink ref="A42" r:id="rId41" location="DOCUMENT_APPROVAL_WORKFLOW_M" display="DOCUMENT_APPROVAL_WORKFLOW_M.vstx - DOCUMENT_APPROVAL_WORKFLOW_M" xr:uid="{45062C57-966C-431C-8535-A07679276C98}"/>
-    <hyperlink ref="A43" r:id="rId42" location="DRILLD_M" display="DRILLD_M.vstx - DRILLD_M" xr:uid="{24166B42-19BD-4853-91D0-E3220E425837}"/>
-    <hyperlink ref="A44" r:id="rId43" location="DTLNET_M" display="DTLNET_M.vstx - DTLNET_M" xr:uid="{58AAF57F-A3EA-499F-9ECD-B9E601D9F258}"/>
-    <hyperlink ref="A45" r:id="rId44" location="DTLNME_M" display="DTLNME_M.vstx - DTLNME_M" xr:uid="{7CEC8962-D455-4A1F-9B67-52A50E1C7219}"/>
-    <hyperlink ref="A46" r:id="rId45" location="DWGCNV_M" display="DWGCNV_M.vstx - DWGCNV_M" xr:uid="{C5FFFA8E-72C3-4236-B316-1D3ADC2EB62F}"/>
-    <hyperlink ref="A47" r:id="rId46" location="EDU_EECHIP_M" display="EDU_EECHIP_M.vstx - EDU_EECHIP_M" xr:uid="{F74E28D6-CA26-4F79-8F6A-8BDDC4336E8C}"/>
-    <hyperlink ref="A48" r:id="rId47" location="EECHIP_M" display="EECHIP_M.vstx - EECHIP_M" xr:uid="{1BFD2A85-1F03-4540-AB61-F2ED5B97A317}"/>
-    <hyperlink ref="A49" r:id="rId48" location="EEGENR_M" display="EEGENR_M.vstx - EEGENR_M" xr:uid="{E0C536DC-68FF-427C-B70A-6C6362BAF3F2}"/>
-    <hyperlink ref="A50" r:id="rId49" location="EEICS_M" display="EEICS_M.vstx - EEICS_M" xr:uid="{A846E889-4A1D-42D9-91FE-4FF107637EE0}"/>
-    <hyperlink ref="A51" r:id="rId50" location="EESYS_M" display="EESYS_M.vstx - EESYS_M" xr:uid="{D416EA5C-EC5D-40A0-A729-395A5F6E5464}"/>
-    <hyperlink ref="A52" r:id="rId51" location="ELETEL_M" display="ELETEL_M.vstx - ELETEL_M" xr:uid="{D035752D-FB60-4244-B4C4-D63D1665E1E3}"/>
-    <hyperlink ref="A53" r:id="rId52" location="ENTAPP_M" display="ENTAPP_M.vstx - ENTAPP_M" xr:uid="{8FF10EC5-FE88-41BE-8D09-C1C17A679D83}"/>
-    <hyperlink ref="A54" r:id="rId53" location="EPC_M" display="EPC_M.vstx - EPC_M" xr:uid="{6AD7B20D-8571-439C-A69C-2189369A5C9C}"/>
-    <hyperlink ref="A55" r:id="rId54" location="FAULT_M" display="FAULT_M.vstx - FAULT_M" xr:uid="{98A9FBC0-371F-4CB5-B1D2-DD16764624F4}"/>
-    <hyperlink ref="A56" r:id="rId55" location="FLRPLN_M" display="FLRPLN_M.vstx - FLRPLN_M" xr:uid="{8074C296-4B12-44CD-9485-1EF5434086EE}"/>
-    <hyperlink ref="A57" r:id="rId56" location="FPALL_M" display="FPALL_M.vstx - FPALL_M" xr:uid="{4F61317F-7EB9-40EC-8D02-1C5365AE42E8}"/>
-    <hyperlink ref="A58" r:id="rId57" location="GANTT_M" display="GANTT_M.vstx - GANTT_M" xr:uid="{C6360633-8955-45B6-A484-DA3E2B86B7D7}"/>
-    <hyperlink ref="A59" r:id="rId58" location="HIERARCHICALORGCHART_M" display="HIERARCHICALORGCHART_M.vstx - HIERARCHICALORGCHART_M" xr:uid="{876E5B57-66FD-4B34-8D26-CE2FB6FADADA}"/>
-    <hyperlink ref="A60" r:id="rId59" location="HOMPLN_M" display="HOMPLN_M.vstx - HOMPLN_M" xr:uid="{EC5D3B86-3BE7-4AF0-BB70-9584F01B727A}"/>
-    <hyperlink ref="A61" r:id="rId60" location="HVAC_M" display="HVAC_M.vstx - HVAC_M" xr:uid="{50EEB86C-770D-4699-B493-A00AD1BBB2CE}"/>
-    <hyperlink ref="A62" r:id="rId61" location="IDEF0_M" display="IDEF0_M.vstx - IDEF0_M" xr:uid="{688828C4-5B01-42C0-971B-B3EFA91DFC0E}"/>
-    <hyperlink ref="A63" r:id="rId62" location="INTERFACE_UML_CLASS_M" display="INTERFACE_UML_CLASS_M.vstx - INTERFACE_UML_CLASS_M" xr:uid="{EE20D291-283B-41CC-AA31-300F791E5F0A}"/>
-    <hyperlink ref="A64" r:id="rId63" location="ITIL_M" display="ITIL_M.vstx - ITIL_M" xr:uid="{7B14C309-6896-407E-982E-5EEC70177CA7}"/>
-    <hyperlink ref="A65" r:id="rId64" location="LDAPDR_M" display="LDAPDR_M.vstx - LDAPDR_M" xr:uid="{8CE40121-0A21-4E30-B913-A68D0BFE22EB}"/>
-    <hyperlink ref="A66" r:id="rId65" location="MAP3D_M" display="MAP3D_M.vstx - MAP3D_M" xr:uid="{06560E25-E088-427C-9BB4-087AE0407263}"/>
-    <hyperlink ref="A67" r:id="rId66" location="MAP_M" display="MAP_M.vstx - MAP_M" xr:uid="{1142E6AC-2911-41AD-9CAC-5D259B0FD0BD}"/>
-    <hyperlink ref="A68" r:id="rId67" location="MEALL_M" display="MEALL_M.vstx - MEALL_M" xr:uid="{A8DD462F-6A0C-405F-8518-7A9D4E3ECDE6}"/>
-    <hyperlink ref="A69" r:id="rId68" location="MEDIUMENTERPRISECORPNET_M" display="MEDIUMENTERPRISECORPNET_M.vstx - MEDIUMENTERPRISECORPNET_M" xr:uid="{9C964E0E-BC98-4A98-9070-172DE4283D28}"/>
-    <hyperlink ref="A70" r:id="rId69" location="MRKTDG_M" display="MRKTDG_M.vstx - MRKTDG_M" xr:uid="{B20F6335-18E0-4B5C-A877-9E6222790761}"/>
-    <hyperlink ref="A71" r:id="rId70" location="NETWME_M" display="NETWME_M.vstx - NETWME_M" xr:uid="{C16BF303-B286-483B-8551-9C9049FE6B31}"/>
-    <hyperlink ref="A72" r:id="rId71" location="NETW_M" display="NETW_M.vstx - NETW_M" xr:uid="{1E9B015C-6C52-4BC4-B89F-A124100F3900}"/>
-    <hyperlink ref="A73" r:id="rId72" location="OFFLYT_M" display="OFFLYT_M.vstx - OFFLYT_M" xr:uid="{292EDEC0-9A06-472B-9120-93BA89F7CD96}"/>
-    <hyperlink ref="A74" r:id="rId73" location="ONPAGEFLOWCHART_M" display="ONPAGEFLOWCHART_M.vstx - ONPAGEFLOWCHART_M" xr:uid="{2BA60194-117C-4365-9CD8-9FF9A9F321EF}"/>
-    <hyperlink ref="A75" r:id="rId74" location="ORGCH_M" display="ORGCH_M.vstx - ORGCH_M" xr:uid="{DB2BEF4B-487C-4EE8-BD3D-CCCFD8784647}"/>
-    <hyperlink ref="A76" r:id="rId75" location="ORGWIZ_M" display="ORGWIZ_M.vstx - ORGWIZ_M" xr:uid="{86AB3A14-D57E-4A7A-B3A7-9830116ADB5B}"/>
-    <hyperlink ref="A77" r:id="rId76" location="PBASLN_M" display="PBASLN_M.vstx - PBASLN_M" xr:uid="{A637FA4D-6580-49E6-B1BE-251E1FD14FC0}"/>
-    <hyperlink ref="A78" r:id="rId77" location="PBLANK_M" display="PBLANK_M.vstx - PBLANK_M" xr:uid="{3DD80CA3-03A5-4D46-ABFE-84D678674626}"/>
-    <hyperlink ref="A79" r:id="rId78" location="PCRTSK_M" display="PCRTSK_M.vstx - PCRTSK_M" xr:uid="{26C24F8E-0441-43A7-9048-ED6C80AF315C}"/>
-    <hyperlink ref="A80" r:id="rId79" location="PCSHFL_M" display="PCSHFL_M.vstx - PCSHFL_M" xr:uid="{E572326B-B619-41A0-8DDA-3980777213A8}"/>
-    <hyperlink ref="A81" r:id="rId80" location="PEDG_M" display="PEDG_M.vstx - PEDG_M" xr:uid="{2E2E5467-F896-43D7-9CC2-50C062EEA2E0}"/>
-    <hyperlink ref="A82" r:id="rId81" location="PEPIPE_M" display="PEPIPE_M.vstx - PEPIPE_M" xr:uid="{D2DB3E08-6CF3-472E-9FC9-15C5B6E67048}"/>
-    <hyperlink ref="A83" r:id="rId82" location="PERT_M" display="PERT_M.vstx - PERT_M" xr:uid="{DBD92ABF-8371-4F98-B895-677B892328A2}"/>
-    <hyperlink ref="A84" r:id="rId83" location="PLMPIP_M" display="PLMPIP_M.vstx - PLMPIP_M" xr:uid="{033DAD35-BDEA-4743-A9EC-17D638281088}"/>
-    <hyperlink ref="A85" r:id="rId84" location="PLTLYT_M" display="PLTLYT_M.vstx - PLTLYT_M" xr:uid="{AB867C08-03A2-48B6-8831-0887F670CF0D}"/>
-    <hyperlink ref="A86" r:id="rId85" location="PRSAVL_M" display="PRSAVL_M.vstx - PRSAVL_M" xr:uid="{44503C48-06B3-442C-BECC-8B580050B610}"/>
-    <hyperlink ref="A87" r:id="rId86" location="PRSSTS_M" display="PRSSTS_M.vstx - PRSSTS_M" xr:uid="{2883199F-DDB3-4309-90C8-D7CDA90872AE}"/>
-    <hyperlink ref="A88" r:id="rId87" location="PSTRCT_M" display="PSTRCT_M.vstx - PSTRCT_M" xr:uid="{830DBD89-5F42-4468-98D6-1173E604C9DC}"/>
-    <hyperlink ref="A89" r:id="rId88" location="PTSKST_M" display="PTSKST_M.vstx - PTSKST_M" xr:uid="{454B406B-27E9-4057-810D-4AB454D27482}"/>
-    <hyperlink ref="A90" r:id="rId89" location="RACK_M" display="RACK_M.vstx - RACK_M" xr:uid="{6A54CE8A-2E0E-4527-BCB3-F9081A50E489}"/>
-    <hyperlink ref="A91" r:id="rId90" location="SDL_M" display="SDL_M.vstx - SDL_M" xr:uid="{EE666434-E749-4D66-B1E3-0AD71874C4B6}"/>
-    <hyperlink ref="A92" r:id="rId91" location="SECACC_M" display="SECACC_M.vstx - SECACC_M" xr:uid="{9311FA09-20F8-4CCB-A5F4-ACBAABF3197F}"/>
-    <hyperlink ref="A93" r:id="rId92" location="SHAREPOINT_EXTRANETTOPOLOGY_M" display="SHAREPOINT_EXTRANETTOPOLOGY_M.vstx - SHAREPOINT_EXTRANETTOPOLOGY_M" xr:uid="{9E8416E0-E0FB-4FA3-9456-B34B1362ABB2}"/>
-    <hyperlink ref="A94" r:id="rId93" location="SIMPLE_WORKFLOW_M" display="SIMPLE_WORKFLOW_M.vstx - SIMPLE_WORKFLOW_M" xr:uid="{9BD10633-9D93-4030-B1C7-02C7638B3B59}"/>
-    <hyperlink ref="A95" r:id="rId94" location="SITPLN_M" display="SITPLN_M.vstx - SITPLN_M" xr:uid="{E49A8743-652F-4F5E-9E57-BAF0EA0CD756}"/>
-    <hyperlink ref="A96" r:id="rId95" location="SIXSIG_M" display="SIXSIG_M.vstx - SIXSIG_M" xr:uid="{42A662AB-5C8F-4898-875E-E51B634BA012}"/>
-    <hyperlink ref="A97" r:id="rId96" location="SMALLMEDIUM_BUSINESS_NETWORK_M" display="SMALLMEDIUM_BUSINESS_NETWORK_M.vstx - SMALLMEDIUM_BUSINESS_NETWORK_M" xr:uid="{FA93D0B6-FFB3-430A-8918-4C66654EB2D2}"/>
-    <hyperlink ref="A98" r:id="rId97" location="SPCPLN_M" display="SPCPLN_M.vstx - SPCPLN_M" xr:uid="{144133DB-7E29-476B-835D-C6368474C3C0}"/>
-    <hyperlink ref="A99" r:id="rId98" location="SPW2_M" display="SPW2_M.vstx - SPW2_M" xr:uid="{52717091-DE1D-4239-BAC7-6372C0495544}"/>
-    <hyperlink ref="A100" r:id="rId99" location="SPW_M" display="SPW_M.vstx - SPW_M" xr:uid="{EB77C7D8-1958-464F-86E3-C68D5A60CEE2}"/>
-    <hyperlink ref="A101" r:id="rId100" location="SUBPROCESSFLOWCHART_M" display="SUBPROCESSFLOWCHART_M.vstx - SUBPROCESSFLOWCHART_M" xr:uid="{06581FAA-0DEC-48F5-A903-13202638650C}"/>
-    <hyperlink ref="A102" r:id="rId101" location="SUBTASKS_GANTTCHART_M" display="SUBTASKS_GANTTCHART_M.vstx - SUBTASKS_GANTTCHART_M" xr:uid="{1EE40A9A-D33F-4473-818B-162BCF5AE86F}"/>
-    <hyperlink ref="A103" r:id="rId102" location="TIMELN_CYLINDRICAL_M" display="TIMELN_CYLINDRICAL_M.vstx - TIMELN_CYLINDRICAL_M" xr:uid="{96B5A724-3E5A-494C-950B-FABE04A6C57B}"/>
-    <hyperlink ref="A104" r:id="rId103" location="TIMELN_EXPANDEDBLOCK_M" display="TIMELN_EXPANDEDBLOCK_M.vstx - TIMELN_EXPANDEDBLOCK_M" xr:uid="{AED39BB2-6678-4310-9EC4-2F3F199B0171}"/>
-    <hyperlink ref="A105" r:id="rId104" location="TIMELN_M" display="TIMELN_M.vstx - TIMELN_M" xr:uid="{258D43CC-3D94-4F28-A034-F99CD6BCA916}"/>
-    <hyperlink ref="A106" r:id="rId105" location="TIMELN_VERTICALBLOCK_M" display="TIMELN_VERTICALBLOCK_M.vstx - TIMELN_VERTICALBLOCK_M" xr:uid="{982D0E24-A310-4048-89C9-8C88BFF1C6E8}"/>
-    <hyperlink ref="A107" r:id="rId106" location="TQM_M" display="TQM_M.vstx - TQM_M" xr:uid="{29614B5C-647E-4616-BA5A-E6B3D3F47237}"/>
-    <hyperlink ref="A108" r:id="rId107" location="UACTME_M" display="UACTME_M.vstx - UACTME_M" xr:uid="{4AB866C1-6CF7-4046-9F9C-938170BD96AE}"/>
-    <hyperlink ref="A109" r:id="rId108" location="UCMNME_BASIC_M" display="UCMNME_BASIC_M.vstx - UCMNME_BASIC_M" xr:uid="{1D97D9AC-A1CD-4627-A405-972CAB127E85}"/>
-    <hyperlink ref="A110" r:id="rId109" location="UCMNME_BASIC_R2L" display="UCMNME_BASIC_R2L.vstx - UCMNME_BASIC_R2L" xr:uid="{080B2A37-3C9D-4D6E-80A7-B33F50186C5D}"/>
-    <hyperlink ref="A111" r:id="rId110" location="UCMNME_M" display="UCMNME_M.vstx - UCMNME_M" xr:uid="{52317754-95E1-4D94-B339-B55ED4B7C44E}"/>
-    <hyperlink ref="A112" r:id="rId111" location="UCMNME_SEQUENCEEXPRESSION_1_M" display="UCMNME_SEQUENCEEXPRESSION_1_M.vstx - UCMNME_SEQUENCEEXPRESSION_1_M" xr:uid="{A5BED127-5588-46F0-871D-BB356EA5BE5D}"/>
-    <hyperlink ref="A113" r:id="rId112" location="UCMNME_SEQUENCEEXPRESSION_1_R2L" display="UCMNME_SEQUENCEEXPRESSION_1_R2L.vstx - UCMNME_SEQUENCEEXPRESSION_1_R2L" xr:uid="{3875997C-524E-42C9-9E1F-C912BBE64420}"/>
-    <hyperlink ref="A114" r:id="rId113" location="UCMNME_SEQUENCEEXPRESSION_2_M" display="UCMNME_SEQUENCEEXPRESSION_2_M.vstx - UCMNME_SEQUENCEEXPRESSION_2_M" xr:uid="{BD69F093-EE04-4E00-A9BC-E86DEC159BB9}"/>
-    <hyperlink ref="A115" r:id="rId114" location="UCMNME_SEQUENCEEXPRESSION_2_R2L" display="UCMNME_SEQUENCEEXPRESSION_2_R2L.vstx - UCMNME_SEQUENCEEXPRESSION_2_R2L" xr:uid="{818FC0BD-FE83-4399-9067-5EE850C7B8A7}"/>
-    <hyperlink ref="A116" r:id="rId115" location="UCOMME_BASIC_M" display="UCOMME_BASIC_M.vstx - UCOMME_BASIC_M" xr:uid="{528E2B0C-C2E2-49E3-B021-3DCBF0D3225A}"/>
-    <hyperlink ref="A117" r:id="rId116" location="UCOMME_BASIC_R2L" display="UCOMME_BASIC_R2L.vstx - UCOMME_BASIC_R2L" xr:uid="{AA0F0577-46AF-413D-AE6B-9F8E5047AE39}"/>
-    <hyperlink ref="A118" r:id="rId117" location="UCOMME_M" display="UCOMME_M.vstx - UCOMME_M" xr:uid="{46DC1C7B-BF0A-42C5-AD7D-2AF3E13643F7}"/>
-    <hyperlink ref="A119" r:id="rId118" location="UCOMME_MODULE_M" display="UCOMME_MODULE_M.vstx - UCOMME_MODULE_M" xr:uid="{8F36D56B-7A6E-4701-B2ED-FD469946459B}"/>
-    <hyperlink ref="A120" r:id="rId119" location="UCOMME_MODULE_R2L" display="UCOMME_MODULE_R2L.vstx - UCOMME_MODULE_R2L" xr:uid="{FE757AE3-84C0-401E-BB77-DD8B388E20FF}"/>
-    <hyperlink ref="A121" r:id="rId120" location="UCOMME_SUBSYSTEM_M" display="UCOMME_SUBSYSTEM_M.vstx - UCOMME_SUBSYSTEM_M" xr:uid="{62BBAAA0-9677-4C88-B4A4-94486729D18F}"/>
-    <hyperlink ref="A122" r:id="rId121" location="UCOMME_SUBSYSTEM_R2L" display="UCOMME_SUBSYSTEM_R2L.vstx - UCOMME_SUBSYSTEM_R2L" xr:uid="{134DC90E-1F0F-4EDE-B01F-A8AA34F0145A}"/>
-    <hyperlink ref="A123" r:id="rId122" location="UDEPME_BASIC_M" display="UDEPME_BASIC_M.vstx - UDEPME_BASIC_M" xr:uid="{1FB92DE8-46AE-4E6D-809F-F6EB8892519E}"/>
-    <hyperlink ref="A124" r:id="rId123" location="UDEPME_BASIC_R2L" display="UDEPME_BASIC_R2L.vstx - UDEPME_BASIC_R2L" xr:uid="{C24F3F98-B1B4-43B4-ABD4-16F24AA9CD58}"/>
-    <hyperlink ref="A125" r:id="rId124" location="UDEPME_HIERARCHICAL_NODES_M" display="UDEPME_HIERARCHICAL_NODES_M.vstx - UDEPME_HIERARCHICAL_NODES_M" xr:uid="{4B661701-1CAC-4477-9870-6668BB0A26E6}"/>
-    <hyperlink ref="A126" r:id="rId125" location="UDEPME_HIERARCHICAL_NODES_R2L" display="UDEPME_HIERARCHICAL_NODES_R2L.vstx - UDEPME_HIERARCHICAL_NODES_R2L" xr:uid="{011DD0EA-46D9-46C1-8302-0082560D0594}"/>
-    <hyperlink ref="A127" r:id="rId126" location="UDEPME_M" display="UDEPME_M.vstx - UDEPME_M" xr:uid="{49EEF167-A561-4FE3-BCB1-56A51528280E}"/>
-    <hyperlink ref="A128" r:id="rId127" location="UDEPME_MANIFESTATION_M" display="UDEPME_MANIFESTATION_M.vstx - UDEPME_MANIFESTATION_M" xr:uid="{30BE9C6D-5971-4C13-BC95-3DE33445FCFA}"/>
-    <hyperlink ref="A129" r:id="rId128" location="UDEPME_MANIFESTATION_R2L" display="UDEPME_MANIFESTATION_R2L.vstx - UDEPME_MANIFESTATION_R2L" xr:uid="{EFE9FE36-1896-4BB1-8206-80D2575EFDEA}"/>
-    <hyperlink ref="A130" r:id="rId129" location="UMLSEQUENCE_INTERACTIONFRAME_M" display="UMLSEQUENCE_INTERACTIONFRAME_M.vstx - UMLSEQUENCE_INTERACTIONFRAME_M" xr:uid="{18D97B31-3127-44A8-BB4D-75605AFE3475}"/>
-    <hyperlink ref="A131" r:id="rId130" location="UMLSEQUENCE_LOOP_M" display="UMLSEQUENCE_LOOP_M.vstx - UMLSEQUENCE_LOOP_M" xr:uid="{6C21402B-868D-47B6-971F-2D5C92964F3C}"/>
-    <hyperlink ref="A132" r:id="rId131" location="UML_CLASS_M" display="UML_CLASS_M.vstx - UML_CLASS_M" xr:uid="{FE112B84-6300-4424-BE64-A4738F2BBDCE}"/>
-    <hyperlink ref="A133" r:id="rId132" location="UML_USECASE_DEPENDENCIES_M" display="UML_USECASE_DEPENDENCIES_M.vstx - UML_USECASE_DEPENDENCIES_M" xr:uid="{52F369D4-D057-4D61-B293-1C4C30900681}"/>
-    <hyperlink ref="A134" r:id="rId133" location="UML_USECASE_M" display="UML_USECASE_M.vstx - UML_USECASE_M" xr:uid="{95D741C8-1A1B-4DFB-AFEF-01FA2AD87E71}"/>
-    <hyperlink ref="A135" r:id="rId134" location="UML_USECASE_SUBSYSTEM_M" display="UML_USECASE_SUBSYSTEM_M.vstx - UML_USECASE_SUBSYSTEM_M" xr:uid="{C2C0BEA2-E684-46C3-98C8-5AF06AA9EF86}"/>
-    <hyperlink ref="A136" r:id="rId135" location="USEQME_M" display="USEQME_M.vstx - USEQME_M" xr:uid="{E4808BFF-B90C-40F4-B03E-E5CA9A25357A}"/>
-    <hyperlink ref="A137" r:id="rId136" location="USTAME_M" display="USTAME_M.vstx - USTAME_M" xr:uid="{33A4F0BE-C29A-4B5B-B267-37BDA2CD85B2}"/>
-    <hyperlink ref="A138" r:id="rId137" location="USTRME_M" display="USTRME_M.vstx - USTRME_M" xr:uid="{8D8996A1-0C2A-4067-A70F-E8B0D34C2450}"/>
-    <hyperlink ref="A139" r:id="rId138" location="UUSEME_M" display="UUSEME_M.vstx - UUSEME_M" xr:uid="{476B402F-0655-4D59-A503-38909F01A8B5}"/>
-    <hyperlink ref="A140" r:id="rId139" location="VERTICALFLOWCHART_M" display="VERTICALFLOWCHART_M.vstx - VERTICALFLOWCHART_M" xr:uid="{AA10FEBA-E458-4ED4-9342-E9FF28398A4F}"/>
-    <hyperlink ref="A141" r:id="rId140" location="VSM_M" display="VSM_M.vstx - VSM_M" xr:uid="{7A16C1DF-C7C9-4E6B-BEBE-785897482FF5}"/>
-    <hyperlink ref="A142" r:id="rId141" location="WEBMAP_M" display="WEBMAP_M.vstx - WEBMAP_M" xr:uid="{FEA76742-775C-4470-98F0-CA11DA744953}"/>
-    <hyperlink ref="A143" r:id="rId142" location="WEBSIT_M" display="WEBSIT_M.vstx - WEBSIT_M" xr:uid="{EEC43178-1BFD-4741-801D-623EE680B5CA}"/>
-    <hyperlink ref="A144" r:id="rId143" location="WFDGM_M" display="WFDGM_M.vstx - WFDGM_M" xr:uid="{80928EDA-05AD-4986-A95D-7A15C8CD74A8}"/>
-    <hyperlink ref="A145" r:id="rId144" location="WORKFLOW_DEPARTMENTAL_M" display="WORKFLOW_DEPARTMENTAL_M.vstx - WORKFLOW_DEPARTMENTAL_M" xr:uid="{93803FE4-343A-42C9-8BAE-2B5D2477349E}"/>
-    <hyperlink ref="A146" r:id="rId145" location="WORKFLOW_FUNCTION_M" display="WORKFLOW_FUNCTION_M.vstx - WORKFLOW_FUNCTION_M" xr:uid="{6BBB2D46-C3B7-4B36-9FB9-8D9D507358C9}"/>
-    <hyperlink ref="A147" r:id="rId146" location="WORKFLOW_PROCESS_M" display="WORKFLOW_PROCESS_M.vstx - WORKFLOW_PROCESS_M" xr:uid="{78C0235E-42F2-4F71-9D4F-7CF6DB977641}"/>
-    <hyperlink ref="A148" r:id="rId147" location="WRKFLO_M" display="WRKFLO_M.vstx - WRKFLO_M" xr:uid="{4A104CF2-432C-43FA-8077-8E5EFAD86916}"/>
-    <hyperlink ref="A149" r:id="rId148" location="WRKFME_M" display="WRKFME_M.vstx - WRKFME_M" xr:uid="{77EE55C9-1E04-4BDA-9971-98E62DD4D39E}"/>
-    <hyperlink ref="A150" r:id="rId149" location="WWFC_BLOG_M" display="WWFC_BLOG_M.vstx - WWFC_BLOG_M" xr:uid="{5F9FF0E4-E1E7-4143-B2F6-A6277BB78C6B}"/>
-    <hyperlink ref="A151" r:id="rId150" location="WWFC_BLOG_R2L" display="WWFC_BLOG_R2L.vstx - WWFC_BLOG_R2L" xr:uid="{2F763571-FCB7-4AC6-9F7F-020DB2D31BD4}"/>
-    <hyperlink ref="A152" r:id="rId151" location="WWFC_CONTENTRICH_M" display="WWFC_CONTENTRICH_M.vstx - WWFC_CONTENTRICH_M" xr:uid="{682E6164-4882-48A2-AC61-0FF95FAA5F4D}"/>
-    <hyperlink ref="A153" r:id="rId152" location="WWFC_CONTENTRICH_R2L" display="WWFC_CONTENTRICH_R2L.vstx - WWFC_CONTENTRICH_R2L" xr:uid="{816A2BA9-B2BF-4D91-9540-651FDF4081E6}"/>
-    <hyperlink ref="A154" r:id="rId153" location="WWFC_ECOMMERCE_M" display="WWFC_ECOMMERCE_M.vstx - WWFC_ECOMMERCE_M" xr:uid="{9C8B8652-F3FF-44BB-9DD2-D21A90510F1D}"/>
-    <hyperlink ref="A155" r:id="rId154" location="WWFC_ECOMMERCE_R2L" display="WWFC_ECOMMERCE_R2L.vstx - WWFC_ECOMMERCE_R2L" xr:uid="{6B74A756-2683-4E50-9031-AF658552731B}"/>
-    <hyperlink ref="A156" r:id="rId155" location="WWFC_M" display="WWFC_M.vstx - WWFC_M" xr:uid="{F29F877B-FB1B-49B6-919D-D47C3ED23F49}"/>
-    <hyperlink ref="A157" r:id="rId156" location="XFUNC_M" display="XFUNC_M.vstx - XFUNC_M" xr:uid="{561EAB0C-30FF-4148-87F2-830DEAF58A4D}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{97869406-D545-40D6-8BF0-29CC7DFA8D89}"/>
+    <hyperlink ref="A3" r:id="rId2" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/ACTUAL_FINISHDATES_GANTTCHART_M.VSTX" xr:uid="{5FE9B72D-F0A1-44BA-8DB1-50711CF995A3}"/>
+    <hyperlink ref="A4" r:id="rId3" display="c:\Program Files (x86)\Microsoft Office\root\Office16\Visio Content\1049\ASSOCIATIONS_UML_CLASS_M.vstx" xr:uid="{83C00140-D6C3-4ECB-AADC-335E7209EE26}"/>
+    <hyperlink ref="A5" r:id="rId4" display="c:\Program Files (x86)\Microsoft Office\root\Office16\Visio Content\1049\AUDIT_M.vstx" xr:uid="{D6E21D6F-BE79-4C3F-A5F6-AA715F21AD49}"/>
+    <hyperlink ref="A6" r:id="rId5" location="AUDIT_SEVERAL_OUTCOMES_M" display="AUDIT_SEVERAL_OUTCOMES_M.vstx - AUDIT_SEVERAL_OUTCOMES_M" xr:uid="{B5ECC25F-91C5-4996-9ECB-8EB816E769D6}"/>
+    <hyperlink ref="A7" r:id="rId6" location="AUDIT_SUBPROCESS_M" xr:uid="{BAF2EB2F-65C1-4205-8F15-F14F63589F93}"/>
+    <hyperlink ref="A8" r:id="rId7" location="BASFLO_M" display="../../../../../../Program Files (x86)/Microsoft Office/root/Office16/Visio Content/1049/BASFLO_M.vstx - BASFLO_M" xr:uid="{819D3FE3-850E-473F-95DE-027FF3775EAA}"/>
+    <hyperlink ref="A9" r:id="rId8" location="BASICCIRCUIT_DIAGRAM_M" display="BASICCIRCUIT_DIAGRAM_M.vstx - BASICCIRCUIT_DIAGRAM_M" xr:uid="{11055E3A-CFF9-41A1-930C-C7854399F5F1}"/>
+    <hyperlink ref="A10" r:id="rId9" location="BASICD_M" xr:uid="{2F12BFDC-A1BE-4D9E-947B-44F555697DB8}"/>
+    <hyperlink ref="A11" r:id="rId10" location="BASICELECTRICAL_DIAGRAM_M" display="BASICELECTRICAL_DIAGRAM_M.vstx - BASICELECTRICAL_DIAGRAM_M" xr:uid="{820161BF-E7C6-4D28-A13C-874BB542C8C3}"/>
+    <hyperlink ref="A12" r:id="rId11" location="BASIC_AUDITDIAGRAM_M" xr:uid="{107872BD-167E-428F-90B2-255C0316318C}"/>
+    <hyperlink ref="A13" r:id="rId12" location="BASIC_GANTTCHART_M" display="BASIC_GANTTCHART_M.vstx - BASIC_GANTTCHART_M" xr:uid="{F87BB83C-2A41-42C0-99DD-8A387B0BCB93}"/>
+    <hyperlink ref="A14" r:id="rId13" location="BASIC_HOME_NETWORK_M" display="BASIC_HOME_NETWORK_M.vstx - BASIC_HOME_NETWORK_M" xr:uid="{776F3B62-6987-4A16-9F62-5150A7FF4638}"/>
+    <hyperlink ref="A15" r:id="rId14" location="BASIC_UMLSEQUENCE_M" display="BASIC_UMLSEQUENCE_M.vstx - BASIC_UMLSEQUENCE_M" xr:uid="{080525BD-9EE1-4F1D-B302-51BB6483B5A8}"/>
+    <hyperlink ref="A16" r:id="rId15" location="BF_DATAVISUALIZER_M" display="BF_DATAVISUALIZER_M.vstx - BF_DATAVISUALIZER_M" xr:uid="{D999714B-BA2F-400E-9FD2-761B676204B9}"/>
+    <hyperlink ref="A17" r:id="rId16" location="BLOCKP_M" display="BLOCKP_M.vstx - BLOCKP_M" xr:uid="{1795BBE8-D077-4341-A318-837932530953}"/>
+    <hyperlink ref="A18" r:id="rId17" location="BLOCK_M" display="BLOCK_M.vstx - BLOCK_M" xr:uid="{5CD725AF-48B0-41E3-8E0C-95A9FB6BA478}"/>
+    <hyperlink ref="A19" r:id="rId18" location="BPMN_ADDRESS_CHANGE_PROCESS_M" display="BPMN_ADDRESS_CHANGE_PROCESS_M.vstx - BPMN_ADDRESS_CHANGE_PROCESS_M" xr:uid="{DC51DFC8-9E59-4B65-BD21-4A3851FD1501}"/>
+    <hyperlink ref="A20" r:id="rId19" location="BPMN_M" display="BPMN_M.vstx - BPMN_M" xr:uid="{A695AE72-FDC8-4113-B296-FC2A6682ECD4}"/>
+    <hyperlink ref="A21" r:id="rId20" location="BPMN_PROCESS_GATEWAY_M" display="BPMN_PROCESS_GATEWAY_M.vstx - BPMN_PROCESS_GATEWAY_M" xr:uid="{9D232040-0823-4EC0-AB76-CA4DE7B11588}"/>
+    <hyperlink ref="A22" r:id="rId21" location="BPMN_PROCESS_MULTIPLE_ROLES_M" display="BPMN_PROCESS_MULTIPLE_ROLES_M.vstx - BPMN_PROCESS_MULTIPLE_ROLES_M" xr:uid="{532DB29B-674D-48B4-9CF6-272174FB761F}"/>
+    <hyperlink ref="A23" r:id="rId22" location="BSTORM_M" display="BSTORM_M.vstx - BSTORM_M" xr:uid="{7E19F6B5-42FF-46F9-96E8-2112D7764B32}"/>
+    <hyperlink ref="A24" r:id="rId23" location="CALNDR_M" display="CALNDR_M.vstx - CALNDR_M" xr:uid="{4538181D-71F9-424C-B2AD-F5DDD18D7CD2}"/>
+    <hyperlink ref="A25" r:id="rId24" location="CAUSEF_M" display="CAUSEF_M.vstx - CAUSEF_M" xr:uid="{EE30D57A-4092-4EE9-83D6-EDA4DD136F12}"/>
+    <hyperlink ref="A26" r:id="rId25" location="CEILPL_M" display="CEILPL_M.vstx - CEILPL_M" xr:uid="{CE03FFB5-BF4B-467E-AFB2-6CF20FADD057}"/>
+    <hyperlink ref="A27" r:id="rId26" location="CFF_DATAVISUALIZER_M" display="CFF_DATAVISUALIZER_M.vstx - CFF_DATAVISUALIZER_M" xr:uid="{5D30A826-86A9-451F-B348-A7EFEEC3D4BB}"/>
+    <hyperlink ref="A28" r:id="rId27" location="CFF_HORIZONTAL_M" display="CFF_HORIZONTAL_M.vstx - CFF_HORIZONTAL_M" xr:uid="{75F468E9-6677-43C7-8236-4F387FC3AA39}"/>
+    <hyperlink ref="A29" r:id="rId28" location="CFF_SHAREDPROCESS_M" display="CFF_SHAREDPROCESS_M.vstx - CFF_SHAREDPROCESS_M" xr:uid="{7FE6CB30-E5F9-481D-9A14-CEB19620834E}"/>
+    <hyperlink ref="A30" r:id="rId29" location="CFF_VERTICAL_M" display="CFF_VERTICAL_M.vstx - CFF_VERTICAL_M" xr:uid="{17718890-DE5C-4E45-8C39-1BE36BD62153}"/>
+    <hyperlink ref="A31" r:id="rId30" location="CHART_M" display="CHART_M.vstx - CHART_M" xr:uid="{B9FF364C-CE8A-4A67-929F-35EFBB5A5C7A}"/>
+    <hyperlink ref="A32" r:id="rId31" location="COMOLE_M" display="COMOLE_M.vstx - COMOLE_M" xr:uid="{66E75BF1-0960-44FF-BF95-813A4FC6F302}"/>
+    <hyperlink ref="A33" r:id="rId32" location="CONLOG_M" display="CONLOG_M.vstx - CONLOG_M" xr:uid="{7FAEA64D-9881-4051-80B1-CD2F8006C76F}"/>
+    <hyperlink ref="A34" r:id="rId33" location="DATFLO_M" display="DATFLO_M.vstx - DATFLO_M" xr:uid="{E4FB70AB-0D7B-406E-9AEF-6E3E0B401171}"/>
+    <hyperlink ref="A35" r:id="rId34" location="DATMOD_M" display="DATMOD_M.vstx - DATMOD_M" xr:uid="{2D32C89E-EDBC-4596-B121-F7CE736AE77E}"/>
+    <hyperlink ref="A36" r:id="rId35" location="DBCHEN_M" display="DBCHEN_M.vstx - DBCHEN_M" xr:uid="{A5FC47D6-8A4E-4592-AFF1-80E5248BD6E5}"/>
+    <hyperlink ref="A37" r:id="rId36" location="DBCROW_M" display="DBCROW_M.vstx - DBCROW_M" xr:uid="{38C06CEB-6F1F-40E1-ADCA-E76FB9CC48CB}"/>
+    <hyperlink ref="A38" r:id="rId37" location="DBIDEF1X_M" display="DBIDEF1X_M.vstx - DBIDEF1X_M" xr:uid="{46D74CC9-F344-42D9-8347-32536AAD7CFE}"/>
+    <hyperlink ref="A39" r:id="rId38" location="DBMODL_M" display="DBMODL_M.vstx - DBMODL_M" xr:uid="{1FCB66C9-4AA5-44D0-A464-24E2504DC116}"/>
+    <hyperlink ref="A40" r:id="rId39" location="DBUML_M" display="DBUML_M.vstx - DBUML_M" xr:uid="{FD99D9CE-6EAF-4F6F-9F71-5D3C5CE38FB4}"/>
+    <hyperlink ref="A41" r:id="rId40" location="DEPTORGCHART_M" display="DEPTORGCHART_M.vstx - DEPTORGCHART_M" xr:uid="{B0704F64-B402-4691-8BA7-85B5A48CF236}"/>
+    <hyperlink ref="A42" r:id="rId41" location="DOCUMENT_APPROVAL_WORKFLOW_M" display="DOCUMENT_APPROVAL_WORKFLOW_M.vstx - DOCUMENT_APPROVAL_WORKFLOW_M" xr:uid="{584373F3-B32D-4D1D-96CF-C5EAD54F9DD4}"/>
+    <hyperlink ref="A43" r:id="rId42" location="DRILLD_M" display="DRILLD_M.vstx - DRILLD_M" xr:uid="{352852B7-F25F-47F1-8859-A4B9899B01D7}"/>
+    <hyperlink ref="A44" r:id="rId43" location="DTLNET_M" display="DTLNET_M.vstx - DTLNET_M" xr:uid="{7E5D8BC0-1E91-406D-982F-59F1647BEE4A}"/>
+    <hyperlink ref="A45" r:id="rId44" location="DTLNME_M" display="DTLNME_M.vstx - DTLNME_M" xr:uid="{1DB69CA2-36B6-4DB3-853B-E835B42EDACA}"/>
+    <hyperlink ref="A46" r:id="rId45" location="DWGCNV_M" display="DWGCNV_M.vstx - DWGCNV_M" xr:uid="{0B966201-B905-4BFB-9993-1ADF05175C3C}"/>
+    <hyperlink ref="A47" r:id="rId46" location="EDU_EECHIP_M" display="EDU_EECHIP_M.vstx - EDU_EECHIP_M" xr:uid="{4C21A290-4936-413F-B2AC-C3ACA83756C6}"/>
+    <hyperlink ref="A48" r:id="rId47" location="EECHIP_M" display="EECHIP_M.vstx - EECHIP_M" xr:uid="{8BC71748-2382-49F9-93BF-5EDCCD7B4BE4}"/>
+    <hyperlink ref="A49" r:id="rId48" location="EEGENR_M" display="EEGENR_M.vstx - EEGENR_M" xr:uid="{668A9E08-54C7-410E-9452-7B1DBE3E5169}"/>
+    <hyperlink ref="A50" r:id="rId49" location="EEICS_M" display="EEICS_M.vstx - EEICS_M" xr:uid="{6F9A5A9F-8AC5-49F5-812B-AC3DEFD77EE2}"/>
+    <hyperlink ref="A51" r:id="rId50" location="EESYS_M" display="EESYS_M.vstx - EESYS_M" xr:uid="{D28CA25F-5AA9-4B44-8E11-9BC993EE9C8F}"/>
+    <hyperlink ref="A52" r:id="rId51" location="ELETEL_M" display="ELETEL_M.vstx - ELETEL_M" xr:uid="{B590AEE4-E166-4C40-B855-FB52CDA9A683}"/>
+    <hyperlink ref="A53" r:id="rId52" location="ENTAPP_M" display="ENTAPP_M.vstx - ENTAPP_M" xr:uid="{5935D3E4-D8CB-4F19-80ED-91266CB11533}"/>
+    <hyperlink ref="A54" r:id="rId53" location="EPC_M" display="EPC_M.vstx - EPC_M" xr:uid="{AD6F4E56-8759-4CBB-95B1-63C94BFC2156}"/>
+    <hyperlink ref="A55" r:id="rId54" location="FAULT_M" display="FAULT_M.vstx - FAULT_M" xr:uid="{4B104383-0F37-497D-BB82-0A0B44CFB706}"/>
+    <hyperlink ref="A56" r:id="rId55" location="FLRPLN_M" display="FLRPLN_M.vstx - FLRPLN_M" xr:uid="{5884610C-7002-4FE6-BDEF-51F109EEE949}"/>
+    <hyperlink ref="A57" r:id="rId56" location="FPALL_M" display="FPALL_M.vstx - FPALL_M" xr:uid="{D2997FD2-C859-47A1-B5FC-BF6B29BE5A07}"/>
+    <hyperlink ref="A58" r:id="rId57" location="GANTT_M" display="GANTT_M.vstx - GANTT_M" xr:uid="{7C63CC3C-5FB5-4D33-867B-4CB76274816C}"/>
+    <hyperlink ref="A59" r:id="rId58" location="HIERARCHICALORGCHART_M" display="HIERARCHICALORGCHART_M.vstx - HIERARCHICALORGCHART_M" xr:uid="{C707C548-8279-4A51-AB56-99869EC0398D}"/>
+    <hyperlink ref="A60" r:id="rId59" location="HOMPLN_M" display="HOMPLN_M.vstx - HOMPLN_M" xr:uid="{21C98279-CCEC-4EAE-A073-697A71A63C00}"/>
+    <hyperlink ref="A61" r:id="rId60" location="HVAC_M" display="HVAC_M.vstx - HVAC_M" xr:uid="{E216A21C-AD9B-440C-87AA-0EC437F68BD3}"/>
+    <hyperlink ref="A62" r:id="rId61" location="IDEF0_M" display="IDEF0_M.vstx - IDEF0_M" xr:uid="{2AD13255-CBFE-410C-8B31-7B6B55F56FCB}"/>
+    <hyperlink ref="A63" r:id="rId62" location="INTERFACE_UML_CLASS_M" display="INTERFACE_UML_CLASS_M.vstx - INTERFACE_UML_CLASS_M" xr:uid="{14C92989-BD5D-47BC-80DE-47873B4F1C71}"/>
+    <hyperlink ref="A64" r:id="rId63" location="ITIL_M" display="ITIL_M.vstx - ITIL_M" xr:uid="{434D89E2-8CDC-4205-9967-65CE4D0A6172}"/>
+    <hyperlink ref="A65" r:id="rId64" location="LDAPDR_M" display="LDAPDR_M.vstx - LDAPDR_M" xr:uid="{F43BE807-EA5C-4CC4-AD1F-43983D2ED972}"/>
+    <hyperlink ref="A66" r:id="rId65" location="MAP3D_M" display="MAP3D_M.vstx - MAP3D_M" xr:uid="{BB61A3E9-88C4-4999-AE31-CD9C9E4AF757}"/>
+    <hyperlink ref="A67" r:id="rId66" location="MAP_M" display="MAP_M.vstx - MAP_M" xr:uid="{BDFFDC17-6559-47E5-9243-69E354B2ADE1}"/>
+    <hyperlink ref="A68" r:id="rId67" location="MEALL_M" display="MEALL_M.vstx - MEALL_M" xr:uid="{195B7EDC-24BB-4E64-81C0-03A2FDEF4FDB}"/>
+    <hyperlink ref="A69" r:id="rId68" location="MEDIUMENTERPRISECORPNET_M" display="MEDIUMENTERPRISECORPNET_M.vstx - MEDIUMENTERPRISECORPNET_M" xr:uid="{AC93A781-689D-40E0-8479-CA75F123E0BE}"/>
+    <hyperlink ref="A70" r:id="rId69" location="MRKTDG_M" display="MRKTDG_M.vstx - MRKTDG_M" xr:uid="{97D260B5-235B-4115-9340-261A928185FB}"/>
+    <hyperlink ref="A71" r:id="rId70" location="NETWME_M" display="NETWME_M.vstx - NETWME_M" xr:uid="{4A7EE23B-ABD7-4776-9195-F8A200B8E5C8}"/>
+    <hyperlink ref="A72" r:id="rId71" location="NETW_M" display="NETW_M.vstx - NETW_M" xr:uid="{904C300C-ADCD-42AA-AECD-CF1A1AF0E167}"/>
+    <hyperlink ref="A73" r:id="rId72" location="OFFLYT_M" display="OFFLYT_M.vstx - OFFLYT_M" xr:uid="{D9AF9D9F-CAB4-4C57-BD98-1778DEF71B59}"/>
+    <hyperlink ref="A74" r:id="rId73" location="ONPAGEFLOWCHART_M" display="ONPAGEFLOWCHART_M.vstx - ONPAGEFLOWCHART_M" xr:uid="{9D781209-4FCD-42DE-81F8-7CEF25D663C8}"/>
+    <hyperlink ref="A75" r:id="rId74" location="ORGCH_M" display="ORGCH_M.vstx - ORGCH_M" xr:uid="{87C23BDE-BD89-4CCF-B967-8DA03C0394CA}"/>
+    <hyperlink ref="A76" r:id="rId75" location="ORGWIZ_M" display="ORGWIZ_M.vstx - ORGWIZ_M" xr:uid="{8768D9CF-E37F-42A9-8CC3-27BB5631E98C}"/>
+    <hyperlink ref="A77" r:id="rId76" location="PBASLN_M" display="PBASLN_M.vstx - PBASLN_M" xr:uid="{BF1150BC-8BF0-4F7F-B232-54765E665476}"/>
+    <hyperlink ref="A78" r:id="rId77" location="PBLANK_M" display="PBLANK_M.vstx - PBLANK_M" xr:uid="{235528F1-2800-4C40-9D5B-7CCD4F86F3F9}"/>
+    <hyperlink ref="A79" r:id="rId78" location="PCRTSK_M" display="PCRTSK_M.vstx - PCRTSK_M" xr:uid="{25703039-5EF2-4133-8C4F-4E49B9CF7361}"/>
+    <hyperlink ref="A80" r:id="rId79" location="PCSHFL_M" display="PCSHFL_M.vstx - PCSHFL_M" xr:uid="{7648A4AE-9E78-4540-B541-70A4DE8668FF}"/>
+    <hyperlink ref="A81" r:id="rId80" location="PEDG_M" display="PEDG_M.vstx - PEDG_M" xr:uid="{9A774A19-58B0-430E-A64D-B03FF4A2AEA5}"/>
+    <hyperlink ref="A82" r:id="rId81" location="PEPIPE_M" display="PEPIPE_M.vstx - PEPIPE_M" xr:uid="{98DB20B6-8EBF-4963-B3C2-E47B4F0C88AC}"/>
+    <hyperlink ref="A83" r:id="rId82" location="PERT_M" display="PERT_M.vstx - PERT_M" xr:uid="{DA14BAA7-D85D-4664-AC85-BE775337F44D}"/>
+    <hyperlink ref="A84" r:id="rId83" location="PLMPIP_M" display="PLMPIP_M.vstx - PLMPIP_M" xr:uid="{0ACEEB8B-524D-4E07-BE1A-FEB7C48666DB}"/>
+    <hyperlink ref="A85" r:id="rId84" location="PLTLYT_M" display="PLTLYT_M.vstx - PLTLYT_M" xr:uid="{BBDDCC1F-EEA6-4A42-A57A-B4743BD83442}"/>
+    <hyperlink ref="A86" r:id="rId85" location="PRSAVL_M" display="PRSAVL_M.vstx - PRSAVL_M" xr:uid="{1F3F79F4-7540-4689-BA99-D5BD5CF1CD74}"/>
+    <hyperlink ref="A87" r:id="rId86" location="PRSSTS_M" display="PRSSTS_M.vstx - PRSSTS_M" xr:uid="{79EFDEB0-0ADD-4A54-9032-C444E024DC80}"/>
+    <hyperlink ref="A88" r:id="rId87" location="PSTRCT_M" display="PSTRCT_M.vstx - PSTRCT_M" xr:uid="{89435241-EDD7-4DE2-BC2D-5D575B73120C}"/>
+    <hyperlink ref="A89" r:id="rId88" location="PTSKST_M" display="PTSKST_M.vstx - PTSKST_M" xr:uid="{7DECC98E-7D93-4A0F-8208-02C60BBC3FD5}"/>
+    <hyperlink ref="A90" r:id="rId89" location="RACK_M" display="RACK_M.vstx - RACK_M" xr:uid="{09FDE7AC-4754-4BBF-A3C5-8E0264663905}"/>
+    <hyperlink ref="A91" r:id="rId90" location="SDL_M" display="SDL_M.vstx - SDL_M" xr:uid="{D8D6C7BF-9ADA-4DFC-ACF0-E76744747C37}"/>
+    <hyperlink ref="A92" r:id="rId91" location="SECACC_M" display="SECACC_M.vstx - SECACC_M" xr:uid="{14FF642A-995C-4B74-B17C-06798EF86EE8}"/>
+    <hyperlink ref="A93" r:id="rId92" location="SHAREPOINT_EXTRANETTOPOLOGY_M" display="SHAREPOINT_EXTRANETTOPOLOGY_M.vstx - SHAREPOINT_EXTRANETTOPOLOGY_M" xr:uid="{B508ECD9-A853-455B-AD0C-84B7A5564240}"/>
+    <hyperlink ref="A94" r:id="rId93" location="SIMPLE_WORKFLOW_M" display="SIMPLE_WORKFLOW_M.vstx - SIMPLE_WORKFLOW_M" xr:uid="{7BC2A68F-A125-402C-955F-E39FCE6A4189}"/>
+    <hyperlink ref="A95" r:id="rId94" location="SITPLN_M" display="SITPLN_M.vstx - SITPLN_M" xr:uid="{C9732B73-4572-4570-89E1-CC3AAFB1E7FC}"/>
+    <hyperlink ref="A96" r:id="rId95" location="SIXSIG_M" display="SIXSIG_M.vstx - SIXSIG_M" xr:uid="{B57196A8-4A11-418D-812B-2529D4F28BF3}"/>
+    <hyperlink ref="A97" r:id="rId96" location="SMALLMEDIUM_BUSINESS_NETWORK_M" display="SMALLMEDIUM_BUSINESS_NETWORK_M.vstx - SMALLMEDIUM_BUSINESS_NETWORK_M" xr:uid="{D5D1A532-5D9C-48AD-9919-2B14F2296853}"/>
+    <hyperlink ref="A98" r:id="rId97" location="SPCPLN_M" display="SPCPLN_M.vstx - SPCPLN_M" xr:uid="{C1C90048-F64D-4916-8DE8-3489A4428B47}"/>
+    <hyperlink ref="A99" r:id="rId98" location="SPW2_M" display="SPW2_M.vstx - SPW2_M" xr:uid="{34AF469F-B543-4AFE-A33F-EF213840B7E3}"/>
+    <hyperlink ref="A100" r:id="rId99" location="SPW_M" display="SPW_M.vstx - SPW_M" xr:uid="{D4DBA48E-DE19-4C45-B31F-B48C97B687B0}"/>
+    <hyperlink ref="A101" r:id="rId100" location="SUBPROCESSFLOWCHART_M" display="SUBPROCESSFLOWCHART_M.vstx - SUBPROCESSFLOWCHART_M" xr:uid="{6F4DB0F8-BB76-4D8E-BD02-72A332B6C40E}"/>
+    <hyperlink ref="A102" r:id="rId101" location="SUBTASKS_GANTTCHART_M" display="SUBTASKS_GANTTCHART_M.vstx - SUBTASKS_GANTTCHART_M" xr:uid="{8120581B-800B-4A7B-842F-85342C66B8C5}"/>
+    <hyperlink ref="A103" r:id="rId102" location="TIMELN_CYLINDRICAL_M" display="TIMELN_CYLINDRICAL_M.vstx - TIMELN_CYLINDRICAL_M" xr:uid="{8B5B1DE4-0570-4C69-9C7A-4ADED6A4FADE}"/>
+    <hyperlink ref="A104" r:id="rId103" location="TIMELN_EXPANDEDBLOCK_M" display="TIMELN_EXPANDEDBLOCK_M.vstx - TIMELN_EXPANDEDBLOCK_M" xr:uid="{D6673C95-5DFE-4306-95CA-C9F6B08FCC6E}"/>
+    <hyperlink ref="A105" r:id="rId104" location="TIMELN_M" display="TIMELN_M.vstx - TIMELN_M" xr:uid="{F8D02F4D-EB55-4065-94BF-2F78DA60A525}"/>
+    <hyperlink ref="A106" r:id="rId105" location="TIMELN_VERTICALBLOCK_M" display="TIMELN_VERTICALBLOCK_M.vstx - TIMELN_VERTICALBLOCK_M" xr:uid="{203D8050-CFF2-45CF-BFB6-C4E73A057F50}"/>
+    <hyperlink ref="A107" r:id="rId106" location="TQM_M" display="TQM_M.vstx - TQM_M" xr:uid="{9C8A975D-A656-4E85-915C-590901D65736}"/>
+    <hyperlink ref="A108" r:id="rId107" location="UACTME_M" display="UACTME_M.vstx - UACTME_M" xr:uid="{EB8B2408-E6FD-4BF7-B514-514261C1F1F5}"/>
+    <hyperlink ref="A109" r:id="rId108" location="UCMNME_BASIC_M" display="UCMNME_BASIC_M.vstx - UCMNME_BASIC_M" xr:uid="{F4D4E432-E37F-424C-ACB5-5EC384812AF4}"/>
+    <hyperlink ref="A110" r:id="rId109" location="UCMNME_BASIC_R2L" display="UCMNME_BASIC_R2L.vstx - UCMNME_BASIC_R2L" xr:uid="{D66FE2D1-EF1C-41F6-9319-D422D09DE536}"/>
+    <hyperlink ref="A111" r:id="rId110" location="UCMNME_M" display="UCMNME_M.vstx - UCMNME_M" xr:uid="{1299F676-3FF3-4A55-9E82-12494DDEFE2A}"/>
+    <hyperlink ref="A112" r:id="rId111" location="UCMNME_SEQUENCEEXPRESSION_1_M" display="UCMNME_SEQUENCEEXPRESSION_1_M.vstx - UCMNME_SEQUENCEEXPRESSION_1_M" xr:uid="{53308309-C481-482B-86A6-E62CE1E3B71C}"/>
+    <hyperlink ref="A113" r:id="rId112" location="UCMNME_SEQUENCEEXPRESSION_1_R2L" display="UCMNME_SEQUENCEEXPRESSION_1_R2L.vstx - UCMNME_SEQUENCEEXPRESSION_1_R2L" xr:uid="{EBDB3670-820C-4BDC-A696-EA45A774A9F1}"/>
+    <hyperlink ref="A114" r:id="rId113" location="UCMNME_SEQUENCEEXPRESSION_2_M" display="UCMNME_SEQUENCEEXPRESSION_2_M.vstx - UCMNME_SEQUENCEEXPRESSION_2_M" xr:uid="{1801500F-483C-41C7-BCAA-B64260C1944A}"/>
+    <hyperlink ref="A115" r:id="rId114" location="UCMNME_SEQUENCEEXPRESSION_2_R2L" display="UCMNME_SEQUENCEEXPRESSION_2_R2L.vstx - UCMNME_SEQUENCEEXPRESSION_2_R2L" xr:uid="{2CA4D476-4D10-482F-B060-32CB232132B3}"/>
+    <hyperlink ref="A116" r:id="rId115" location="UCOMME_BASIC_M" display="UCOMME_BASIC_M.vstx - UCOMME_BASIC_M" xr:uid="{871F68D0-2086-4A8A-ABCF-07F56CC84B30}"/>
+    <hyperlink ref="A117" r:id="rId116" location="UCOMME_BASIC_R2L" display="UCOMME_BASIC_R2L.vstx - UCOMME_BASIC_R2L" xr:uid="{BFA1735D-26DE-4E67-81DE-C5E0721276AB}"/>
+    <hyperlink ref="A118" r:id="rId117" location="UCOMME_M" display="UCOMME_M.vstx - UCOMME_M" xr:uid="{0A3A40A9-ED97-420B-8C38-2A9C6DFC1380}"/>
+    <hyperlink ref="A119" r:id="rId118" location="UCOMME_MODULE_M" display="UCOMME_MODULE_M.vstx - UCOMME_MODULE_M" xr:uid="{CB4A416F-7BC3-405A-8CB9-D3C3045B5DC1}"/>
+    <hyperlink ref="A120" r:id="rId119" location="UCOMME_MODULE_R2L" display="UCOMME_MODULE_R2L.vstx - UCOMME_MODULE_R2L" xr:uid="{AF901589-8C2C-45BE-BC72-B3438A73FCD9}"/>
+    <hyperlink ref="A121" r:id="rId120" location="UCOMME_SUBSYSTEM_M" display="UCOMME_SUBSYSTEM_M.vstx - UCOMME_SUBSYSTEM_M" xr:uid="{B12CD246-8244-4AFE-8253-8853ED80FE60}"/>
+    <hyperlink ref="A122" r:id="rId121" location="UCOMME_SUBSYSTEM_R2L" display="UCOMME_SUBSYSTEM_R2L.vstx - UCOMME_SUBSYSTEM_R2L" xr:uid="{D1D66107-8067-4EE9-AEA1-446C7AC856E4}"/>
+    <hyperlink ref="A123" r:id="rId122" location="UDEPME_BASIC_M" display="UDEPME_BASIC_M.vstx - UDEPME_BASIC_M" xr:uid="{89A610CD-AC85-4EBB-8048-14C23C6DC939}"/>
+    <hyperlink ref="A124" r:id="rId123" location="UDEPME_BASIC_R2L" display="UDEPME_BASIC_R2L.vstx - UDEPME_BASIC_R2L" xr:uid="{705B5A80-60B6-4409-979F-84AC717A0F52}"/>
+    <hyperlink ref="A125" r:id="rId124" location="UDEPME_HIERARCHICAL_NODES_M" display="UDEPME_HIERARCHICAL_NODES_M.vstx - UDEPME_HIERARCHICAL_NODES_M" xr:uid="{57123CA7-B70A-4363-BAF2-C5ABB28224B5}"/>
+    <hyperlink ref="A126" r:id="rId125" location="UDEPME_HIERARCHICAL_NODES_R2L" display="UDEPME_HIERARCHICAL_NODES_R2L.vstx - UDEPME_HIERARCHICAL_NODES_R2L" xr:uid="{AD3D88E0-4A2D-4470-8070-A30BDB42EEC3}"/>
+    <hyperlink ref="A127" r:id="rId126" location="UDEPME_M" display="UDEPME_M.vstx - UDEPME_M" xr:uid="{2BA4FEDC-D855-4726-94BF-4D3B0A007AAD}"/>
+    <hyperlink ref="A128" r:id="rId127" location="UDEPME_MANIFESTATION_M" display="UDEPME_MANIFESTATION_M.vstx - UDEPME_MANIFESTATION_M" xr:uid="{566A64DA-5A8E-4AB9-B85A-31D822822F72}"/>
+    <hyperlink ref="A129" r:id="rId128" location="UDEPME_MANIFESTATION_R2L" display="UDEPME_MANIFESTATION_R2L.vstx - UDEPME_MANIFESTATION_R2L" xr:uid="{8C152A4C-0D6F-4AD1-BB66-845C7FA167AB}"/>
+    <hyperlink ref="A130" r:id="rId129" location="UMLSEQUENCE_INTERACTIONFRAME_M" display="UMLSEQUENCE_INTERACTIONFRAME_M.vstx - UMLSEQUENCE_INTERACTIONFRAME_M" xr:uid="{D5977372-2C6F-4548-9A55-733A57D699A6}"/>
+    <hyperlink ref="A131" r:id="rId130" location="UMLSEQUENCE_LOOP_M" display="UMLSEQUENCE_LOOP_M.vstx - UMLSEQUENCE_LOOP_M" xr:uid="{8176A81C-521E-4A9B-A217-FBEACAB3AF4C}"/>
+    <hyperlink ref="A132" r:id="rId131" location="UML_CLASS_M" display="UML_CLASS_M.vstx - UML_CLASS_M" xr:uid="{C83A92BC-5130-4236-9059-371CD89B3FCE}"/>
+    <hyperlink ref="A133" r:id="rId132" location="UML_USECASE_DEPENDENCIES_M" display="UML_USECASE_DEPENDENCIES_M.vstx - UML_USECASE_DEPENDENCIES_M" xr:uid="{E78CF5D2-AE30-41C9-B402-BCF1ADFDC5C4}"/>
+    <hyperlink ref="A134" r:id="rId133" location="UML_USECASE_M" display="UML_USECASE_M.vstx - UML_USECASE_M" xr:uid="{31197D63-6D27-4A47-924F-F0F2F5B35D6D}"/>
+    <hyperlink ref="A135" r:id="rId134" location="UML_USECASE_SUBSYSTEM_M" display="UML_USECASE_SUBSYSTEM_M.vstx - UML_USECASE_SUBSYSTEM_M" xr:uid="{E74E454F-11E5-476C-A2A6-D2CCD8E2A4D8}"/>
+    <hyperlink ref="A136" r:id="rId135" location="USEQME_M" display="USEQME_M.vstx - USEQME_M" xr:uid="{745216DA-2CED-48F3-A575-E7B4A3A26CAB}"/>
+    <hyperlink ref="A137" r:id="rId136" location="USTAME_M" display="USTAME_M.vstx - USTAME_M" xr:uid="{94A5155C-BEE4-4415-A170-B92AE87F95E3}"/>
+    <hyperlink ref="A138" r:id="rId137" location="USTRME_M" display="USTRME_M.vstx - USTRME_M" xr:uid="{698F5099-44E9-4AED-8011-139A5BB33662}"/>
+    <hyperlink ref="A139" r:id="rId138" location="UUSEME_M" display="UUSEME_M.vstx - UUSEME_M" xr:uid="{449B732B-61FF-4C18-A8A5-20AD84657498}"/>
+    <hyperlink ref="A140" r:id="rId139" location="VERTICALFLOWCHART_M" display="VERTICALFLOWCHART_M.vstx - VERTICALFLOWCHART_M" xr:uid="{D244AA2A-903F-4AA2-BE98-31841EAC5CC3}"/>
+    <hyperlink ref="A141" r:id="rId140" location="VSM_M" display="VSM_M.vstx - VSM_M" xr:uid="{2B00297C-AAD6-4CFB-B414-39A6C4F9D885}"/>
+    <hyperlink ref="A142" r:id="rId141" location="WEBMAP_M" display="WEBMAP_M.vstx - WEBMAP_M" xr:uid="{9F500D93-7A7C-45CF-ADE9-71C2DA056D06}"/>
+    <hyperlink ref="A143" r:id="rId142" location="WEBSIT_M" display="WEBSIT_M.vstx - WEBSIT_M" xr:uid="{5635A2CF-B38B-4E40-848F-E76BA3C93ED9}"/>
+    <hyperlink ref="A144" r:id="rId143" location="WFDGM_M" display="WFDGM_M.vstx - WFDGM_M" xr:uid="{570F479C-777A-430F-94FA-583B5C2D5B35}"/>
+    <hyperlink ref="A145" r:id="rId144" location="WORKFLOW_DEPARTMENTAL_M" display="WORKFLOW_DEPARTMENTAL_M.vstx - WORKFLOW_DEPARTMENTAL_M" xr:uid="{69493C1A-E8B1-4C8F-B425-3D477B23F6EC}"/>
+    <hyperlink ref="A146" r:id="rId145" location="WORKFLOW_FUNCTION_M" display="WORKFLOW_FUNCTION_M.vstx - WORKFLOW_FUNCTION_M" xr:uid="{2A95D2D6-5ABE-4F2E-9977-F41B5B0EF6C2}"/>
+    <hyperlink ref="A147" r:id="rId146" location="WORKFLOW_PROCESS_M" display="WORKFLOW_PROCESS_M.vstx - WORKFLOW_PROCESS_M" xr:uid="{AB946C09-4FDD-4906-95FC-12ED62DDA8AB}"/>
+    <hyperlink ref="A148" r:id="rId147" location="WRKFLO_M" display="WRKFLO_M.vstx - WRKFLO_M" xr:uid="{D0C062AB-620C-45B8-B5CC-CD69658BFB95}"/>
+    <hyperlink ref="A149" r:id="rId148" location="WRKFME_M" display="WRKFME_M.vstx - WRKFME_M" xr:uid="{5CC1B1DB-9AF6-4003-8BF0-D669A21E4A8B}"/>
+    <hyperlink ref="A150" r:id="rId149" location="WWFC_BLOG_M" display="WWFC_BLOG_M.vstx - WWFC_BLOG_M" xr:uid="{8232A0D0-3F8A-40E4-BAA2-D31A30F600B3}"/>
+    <hyperlink ref="A151" r:id="rId150" location="WWFC_BLOG_R2L" display="WWFC_BLOG_R2L.vstx - WWFC_BLOG_R2L" xr:uid="{F320BF50-CB2F-410F-8ACB-904966277C55}"/>
+    <hyperlink ref="A152" r:id="rId151" location="WWFC_CONTENTRICH_M" display="WWFC_CONTENTRICH_M.vstx - WWFC_CONTENTRICH_M" xr:uid="{584D8DC6-067C-4FF5-86BC-CED88EC4CD3C}"/>
+    <hyperlink ref="A153" r:id="rId152" location="WWFC_CONTENTRICH_R2L" display="WWFC_CONTENTRICH_R2L.vstx - WWFC_CONTENTRICH_R2L" xr:uid="{7FB6C470-B6FD-4912-98CC-1AA9F6F208E7}"/>
+    <hyperlink ref="A154" r:id="rId153" location="WWFC_ECOMMERCE_M" display="WWFC_ECOMMERCE_M.vstx - WWFC_ECOMMERCE_M" xr:uid="{C84FF479-D1CA-45F2-ABEB-7A0494F9E1B2}"/>
+    <hyperlink ref="A155" r:id="rId154" location="WWFC_ECOMMERCE_R2L" display="WWFC_ECOMMERCE_R2L.vstx - WWFC_ECOMMERCE_R2L" xr:uid="{A0D06D94-AE3C-4BE0-AE9E-EDBFE0694E2E}"/>
+    <hyperlink ref="A156" r:id="rId155" location="WWFC_M" display="WWFC_M.vstx - WWFC_M" xr:uid="{25540A37-5D07-4EF7-8E60-4BB5BAAFEC69}"/>
+    <hyperlink ref="A157" r:id="rId156" location="XFUNC_M" display="XFUNC_M.vstx - XFUNC_M" xr:uid="{49826A2A-754C-40B6-A632-3E8D92DFF44D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId157"/>
